--- a/참고자료/학생정보테이블.xlsx
+++ b/참고자료/학생정보테이블.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="학생정보" sheetId="1" r:id="rId1"/>
     <sheet name="학생정보 (2)" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="학생성적정보" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="425">
   <si>
     <t>국어국문</t>
   </si>
@@ -1305,6 +1306,58 @@
   <si>
     <t>학과</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학번</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>국어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수학</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>음악</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미술</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D002</t>
+  </si>
+  <si>
+    <t>D003</t>
+  </si>
+  <si>
+    <t>D004</t>
+  </si>
+  <si>
+    <t>학과코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D005</t>
   </si>
 </sst>
 </file>
@@ -1645,10 +1698,2558 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.25" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="14.125" customWidth="1"/>
+    <col min="4" max="4" width="48.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D1" t="s">
+        <v>406</v>
+      </c>
+      <c r="E1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F1" t="s">
+        <v>410</v>
+      </c>
+      <c r="G1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C2" t="s">
+        <v>402</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E33" ca="1" si="0">RANDBETWEEN(1,4)</f>
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" t="str">
+        <f>VLOOKUP(F2,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B3" t="s">
+        <v>399</v>
+      </c>
+      <c r="C3" t="s">
+        <v>398</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="str">
+        <f>VLOOKUP(F3,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B4" t="s">
+        <v>395</v>
+      </c>
+      <c r="C4" t="s">
+        <v>394</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" t="str">
+        <f>VLOOKUP(F4,Sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B5" t="s">
+        <v>391</v>
+      </c>
+      <c r="C5" t="s">
+        <v>390</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" t="str">
+        <f>VLOOKUP(F5,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B6" t="s">
+        <v>387</v>
+      </c>
+      <c r="C6" t="s">
+        <v>386</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" t="str">
+        <f>VLOOKUP(F6,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B7" t="s">
+        <v>383</v>
+      </c>
+      <c r="C7" t="s">
+        <v>382</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" t="str">
+        <f>VLOOKUP(F7,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B8" t="s">
+        <v>379</v>
+      </c>
+      <c r="C8" t="s">
+        <v>378</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" t="str">
+        <f>VLOOKUP(F8,Sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B9" t="s">
+        <v>375</v>
+      </c>
+      <c r="C9" t="s">
+        <v>374</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" t="str">
+        <f>VLOOKUP(F9,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B10" t="s">
+        <v>371</v>
+      </c>
+      <c r="C10" t="s">
+        <v>370</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" t="str">
+        <f>VLOOKUP(F10,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B11" t="s">
+        <v>367</v>
+      </c>
+      <c r="C11" t="s">
+        <v>366</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" t="str">
+        <f>VLOOKUP(F11,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B12" t="s">
+        <v>363</v>
+      </c>
+      <c r="C12" t="s">
+        <v>362</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" t="str">
+        <f>VLOOKUP(F12,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B13" t="s">
+        <v>359</v>
+      </c>
+      <c r="C13" t="s">
+        <v>358</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" t="str">
+        <f>VLOOKUP(F13,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B14" t="s">
+        <v>355</v>
+      </c>
+      <c r="C14" t="s">
+        <v>354</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" t="str">
+        <f>VLOOKUP(F14,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B15" t="s">
+        <v>351</v>
+      </c>
+      <c r="C15" t="s">
+        <v>350</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" t="str">
+        <f>VLOOKUP(F15,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B16" t="s">
+        <v>347</v>
+      </c>
+      <c r="C16" t="s">
+        <v>346</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" t="str">
+        <f>VLOOKUP(F16,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B17" t="s">
+        <v>343</v>
+      </c>
+      <c r="C17" t="s">
+        <v>342</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" t="str">
+        <f>VLOOKUP(F17,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B18" t="s">
+        <v>339</v>
+      </c>
+      <c r="C18" t="s">
+        <v>338</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" t="str">
+        <f>VLOOKUP(F18,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B19" t="s">
+        <v>335</v>
+      </c>
+      <c r="C19" t="s">
+        <v>334</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" t="str">
+        <f>VLOOKUP(F19,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B20" t="s">
+        <v>331</v>
+      </c>
+      <c r="C20" t="s">
+        <v>330</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" t="str">
+        <f>VLOOKUP(F20,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B21" t="s">
+        <v>327</v>
+      </c>
+      <c r="C21" t="s">
+        <v>326</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" t="str">
+        <f>VLOOKUP(F21,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B22" t="s">
+        <v>323</v>
+      </c>
+      <c r="C22" t="s">
+        <v>322</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F22" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" t="str">
+        <f>VLOOKUP(F22,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B23" t="s">
+        <v>319</v>
+      </c>
+      <c r="C23" t="s">
+        <v>318</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" t="str">
+        <f>VLOOKUP(F23,Sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B24" t="s">
+        <v>315</v>
+      </c>
+      <c r="C24" t="s">
+        <v>314</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" t="str">
+        <f>VLOOKUP(F24,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B25" t="s">
+        <v>311</v>
+      </c>
+      <c r="C25" t="s">
+        <v>310</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F25" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" t="str">
+        <f>VLOOKUP(F25,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B26" t="s">
+        <v>307</v>
+      </c>
+      <c r="C26" t="s">
+        <v>306</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F26" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" t="str">
+        <f>VLOOKUP(F26,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B27" t="s">
+        <v>303</v>
+      </c>
+      <c r="C27" t="s">
+        <v>302</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F27" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" t="str">
+        <f>VLOOKUP(F27,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B28" t="s">
+        <v>299</v>
+      </c>
+      <c r="C28" t="s">
+        <v>298</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F28" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" t="str">
+        <f>VLOOKUP(F28,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B29" t="s">
+        <v>295</v>
+      </c>
+      <c r="C29" t="s">
+        <v>294</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F29" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" t="str">
+        <f>VLOOKUP(F29,Sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B30" t="s">
+        <v>291</v>
+      </c>
+      <c r="C30" t="s">
+        <v>290</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F30" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" t="str">
+        <f>VLOOKUP(F30,Sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B31" t="s">
+        <v>287</v>
+      </c>
+      <c r="C31" t="s">
+        <v>286</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" t="str">
+        <f>VLOOKUP(F31,Sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B32" t="s">
+        <v>283</v>
+      </c>
+      <c r="C32" t="s">
+        <v>282</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E32">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F32" t="s">
+        <v>0</v>
+      </c>
+      <c r="G32" t="str">
+        <f>VLOOKUP(F32,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B33" t="s">
+        <v>279</v>
+      </c>
+      <c r="C33" t="s">
+        <v>278</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" t="str">
+        <f>VLOOKUP(F33,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B34" t="s">
+        <v>275</v>
+      </c>
+      <c r="C34" t="s">
+        <v>274</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ref="E34:E65" ca="1" si="1">RANDBETWEEN(1,4)</f>
+        <v>2</v>
+      </c>
+      <c r="F34" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34" t="str">
+        <f>VLOOKUP(F34,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B35" t="s">
+        <v>271</v>
+      </c>
+      <c r="C35" t="s">
+        <v>270</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F35" t="s">
+        <v>48</v>
+      </c>
+      <c r="G35" t="str">
+        <f>VLOOKUP(F35,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B36" t="s">
+        <v>267</v>
+      </c>
+      <c r="C36" t="s">
+        <v>266</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" t="str">
+        <f>VLOOKUP(F36,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B37" t="s">
+        <v>263</v>
+      </c>
+      <c r="C37" t="s">
+        <v>262</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F37" t="s">
+        <v>0</v>
+      </c>
+      <c r="G37" t="str">
+        <f>VLOOKUP(F37,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B38" t="s">
+        <v>259</v>
+      </c>
+      <c r="C38" t="s">
+        <v>258</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F38" t="s">
+        <v>5</v>
+      </c>
+      <c r="G38" t="str">
+        <f>VLOOKUP(F38,Sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B39" t="s">
+        <v>255</v>
+      </c>
+      <c r="C39" t="s">
+        <v>254</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
+        <v>0</v>
+      </c>
+      <c r="G39" t="str">
+        <f>VLOOKUP(F39,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B40" t="s">
+        <v>251</v>
+      </c>
+      <c r="C40" t="s">
+        <v>250</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F40" t="s">
+        <v>48</v>
+      </c>
+      <c r="G40" t="str">
+        <f>VLOOKUP(F40,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B41" t="s">
+        <v>247</v>
+      </c>
+      <c r="C41" t="s">
+        <v>246</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>39</v>
+      </c>
+      <c r="G41" t="str">
+        <f>VLOOKUP(F41,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B42" t="s">
+        <v>243</v>
+      </c>
+      <c r="C42" t="s">
+        <v>242</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F42" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" t="str">
+        <f>VLOOKUP(F42,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B43" t="s">
+        <v>239</v>
+      </c>
+      <c r="C43" t="s">
+        <v>238</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F43" t="s">
+        <v>0</v>
+      </c>
+      <c r="G43" t="str">
+        <f>VLOOKUP(F43,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B44" t="s">
+        <v>235</v>
+      </c>
+      <c r="C44" t="s">
+        <v>234</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E44">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F44" t="s">
+        <v>0</v>
+      </c>
+      <c r="G44" t="str">
+        <f>VLOOKUP(F44,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B45" t="s">
+        <v>231</v>
+      </c>
+      <c r="C45" t="s">
+        <v>230</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F45" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" t="str">
+        <f>VLOOKUP(F45,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B46" t="s">
+        <v>227</v>
+      </c>
+      <c r="C46" t="s">
+        <v>226</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E46">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F46" t="s">
+        <v>39</v>
+      </c>
+      <c r="G46" t="str">
+        <f>VLOOKUP(F46,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B47" t="s">
+        <v>223</v>
+      </c>
+      <c r="C47" t="s">
+        <v>222</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E47">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F47" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" t="str">
+        <f>VLOOKUP(F47,Sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B48" t="s">
+        <v>219</v>
+      </c>
+      <c r="C48" t="s">
+        <v>218</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E48">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F48" t="s">
+        <v>39</v>
+      </c>
+      <c r="G48" t="str">
+        <f>VLOOKUP(F48,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B49" t="s">
+        <v>215</v>
+      </c>
+      <c r="C49" t="s">
+        <v>214</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E49">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F49" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" t="str">
+        <f>VLOOKUP(F49,Sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B50" t="s">
+        <v>211</v>
+      </c>
+      <c r="C50" t="s">
+        <v>210</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E50">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F50" t="s">
+        <v>0</v>
+      </c>
+      <c r="G50" t="str">
+        <f>VLOOKUP(F50,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B51" t="s">
+        <v>207</v>
+      </c>
+      <c r="C51" t="s">
+        <v>206</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E51">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F51" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" t="str">
+        <f>VLOOKUP(F51,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B52" t="s">
+        <v>203</v>
+      </c>
+      <c r="C52" t="s">
+        <v>202</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E52">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F52" t="s">
+        <v>48</v>
+      </c>
+      <c r="G52" t="str">
+        <f>VLOOKUP(F52,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B53" t="s">
+        <v>199</v>
+      </c>
+      <c r="C53" t="s">
+        <v>198</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E53">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F53" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" t="str">
+        <f>VLOOKUP(F53,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B54" t="s">
+        <v>195</v>
+      </c>
+      <c r="C54" t="s">
+        <v>194</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E54">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F54" t="s">
+        <v>39</v>
+      </c>
+      <c r="G54" t="str">
+        <f>VLOOKUP(F54,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B55" t="s">
+        <v>191</v>
+      </c>
+      <c r="C55" t="s">
+        <v>190</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E55">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F55" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" t="str">
+        <f>VLOOKUP(F55,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B56" t="s">
+        <v>187</v>
+      </c>
+      <c r="C56" t="s">
+        <v>186</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E56">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F56" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" t="str">
+        <f>VLOOKUP(F56,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B57" t="s">
+        <v>183</v>
+      </c>
+      <c r="C57" t="s">
+        <v>182</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E57">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F57" t="s">
+        <v>48</v>
+      </c>
+      <c r="G57" t="str">
+        <f>VLOOKUP(F57,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B58" t="s">
+        <v>179</v>
+      </c>
+      <c r="C58" t="s">
+        <v>178</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E58">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F58" t="s">
+        <v>48</v>
+      </c>
+      <c r="G58" t="str">
+        <f>VLOOKUP(F58,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B59" t="s">
+        <v>175</v>
+      </c>
+      <c r="C59" t="s">
+        <v>174</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E59">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F59" t="s">
+        <v>39</v>
+      </c>
+      <c r="G59" t="str">
+        <f>VLOOKUP(F59,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B60" t="s">
+        <v>171</v>
+      </c>
+      <c r="C60" t="s">
+        <v>170</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E60">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F60" t="s">
+        <v>5</v>
+      </c>
+      <c r="G60" t="str">
+        <f>VLOOKUP(F60,Sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B61" t="s">
+        <v>167</v>
+      </c>
+      <c r="C61" t="s">
+        <v>166</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E61">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F61" t="s">
+        <v>0</v>
+      </c>
+      <c r="G61" t="str">
+        <f>VLOOKUP(F61,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B62" t="s">
+        <v>163</v>
+      </c>
+      <c r="C62" t="s">
+        <v>162</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E62">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F62" t="s">
+        <v>39</v>
+      </c>
+      <c r="G62" t="str">
+        <f>VLOOKUP(F62,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B63" t="s">
+        <v>159</v>
+      </c>
+      <c r="C63" t="s">
+        <v>158</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E63">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F63" t="s">
+        <v>5</v>
+      </c>
+      <c r="G63" t="str">
+        <f>VLOOKUP(F63,Sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B64" t="s">
+        <v>155</v>
+      </c>
+      <c r="C64" t="s">
+        <v>154</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E64">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F64" t="s">
+        <v>0</v>
+      </c>
+      <c r="G64" t="str">
+        <f>VLOOKUP(F64,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B65" t="s">
+        <v>151</v>
+      </c>
+      <c r="C65" t="s">
+        <v>150</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E65">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F65" t="s">
+        <v>48</v>
+      </c>
+      <c r="G65" t="str">
+        <f>VLOOKUP(F65,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B66" t="s">
+        <v>147</v>
+      </c>
+      <c r="C66" t="s">
+        <v>146</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E66">
+        <f t="shared" ref="E66:E101" ca="1" si="2">RANDBETWEEN(1,4)</f>
+        <v>3</v>
+      </c>
+      <c r="F66" t="s">
+        <v>5</v>
+      </c>
+      <c r="G66" t="str">
+        <f>VLOOKUP(F66,Sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B67" t="s">
+        <v>143</v>
+      </c>
+      <c r="C67" t="s">
+        <v>142</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F67" t="s">
+        <v>48</v>
+      </c>
+      <c r="G67" t="str">
+        <f>VLOOKUP(F67,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B68" t="s">
+        <v>139</v>
+      </c>
+      <c r="C68" t="s">
+        <v>138</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E68">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F68" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" t="str">
+        <f>VLOOKUP(F68,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" t="s">
+        <v>135</v>
+      </c>
+      <c r="C69" t="s">
+        <v>134</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E69">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F69" t="s">
+        <v>0</v>
+      </c>
+      <c r="G69" t="str">
+        <f>VLOOKUP(F69,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B70" t="s">
+        <v>131</v>
+      </c>
+      <c r="C70" t="s">
+        <v>130</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E70">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F70" t="s">
+        <v>10</v>
+      </c>
+      <c r="G70" t="str">
+        <f>VLOOKUP(F70,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B71" t="s">
+        <v>127</v>
+      </c>
+      <c r="C71" t="s">
+        <v>126</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E71">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F71" t="s">
+        <v>48</v>
+      </c>
+      <c r="G71" t="str">
+        <f>VLOOKUP(F71,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B72" t="s">
+        <v>123</v>
+      </c>
+      <c r="C72" t="s">
+        <v>122</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E72">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F72" t="s">
+        <v>39</v>
+      </c>
+      <c r="G72" t="str">
+        <f>VLOOKUP(F72,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B73" t="s">
+        <v>119</v>
+      </c>
+      <c r="C73" t="s">
+        <v>118</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E73">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F73" t="s">
+        <v>48</v>
+      </c>
+      <c r="G73" t="str">
+        <f>VLOOKUP(F73,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B74" t="s">
+        <v>115</v>
+      </c>
+      <c r="C74" t="s">
+        <v>114</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E74">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F74" t="s">
+        <v>0</v>
+      </c>
+      <c r="G74" t="str">
+        <f>VLOOKUP(F74,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B75" t="s">
+        <v>111</v>
+      </c>
+      <c r="C75" t="s">
+        <v>110</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E75">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F75" t="s">
+        <v>5</v>
+      </c>
+      <c r="G75" t="str">
+        <f>VLOOKUP(F75,Sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B76" t="s">
+        <v>107</v>
+      </c>
+      <c r="C76" t="s">
+        <v>106</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E76">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F76" t="s">
+        <v>39</v>
+      </c>
+      <c r="G76" t="str">
+        <f>VLOOKUP(F76,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B77" t="s">
+        <v>103</v>
+      </c>
+      <c r="C77" t="s">
+        <v>102</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E77">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F77" t="s">
+        <v>39</v>
+      </c>
+      <c r="G77" t="str">
+        <f>VLOOKUP(F77,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B78" t="s">
+        <v>99</v>
+      </c>
+      <c r="C78" t="s">
+        <v>98</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E78">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F78" t="s">
+        <v>39</v>
+      </c>
+      <c r="G78" t="str">
+        <f>VLOOKUP(F78,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B79" t="s">
+        <v>95</v>
+      </c>
+      <c r="C79" t="s">
+        <v>94</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E79">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F79" t="s">
+        <v>48</v>
+      </c>
+      <c r="G79" t="str">
+        <f>VLOOKUP(F79,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B80" t="s">
+        <v>91</v>
+      </c>
+      <c r="C80" t="s">
+        <v>90</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E80">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F80" t="s">
+        <v>48</v>
+      </c>
+      <c r="G80" t="str">
+        <f>VLOOKUP(F80,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B81" t="s">
+        <v>87</v>
+      </c>
+      <c r="C81" t="s">
+        <v>86</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E81">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F81" t="s">
+        <v>39</v>
+      </c>
+      <c r="G81" t="str">
+        <f>VLOOKUP(F81,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82" t="s">
+        <v>83</v>
+      </c>
+      <c r="C82" t="s">
+        <v>82</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E82">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F82" t="s">
+        <v>39</v>
+      </c>
+      <c r="G82" t="str">
+        <f>VLOOKUP(F82,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B83" t="s">
+        <v>79</v>
+      </c>
+      <c r="C83" t="s">
+        <v>78</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E83">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F83" t="s">
+        <v>39</v>
+      </c>
+      <c r="G83" t="str">
+        <f>VLOOKUP(F83,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B84" t="s">
+        <v>75</v>
+      </c>
+      <c r="C84" t="s">
+        <v>74</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E84">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F84" t="s">
+        <v>0</v>
+      </c>
+      <c r="G84" t="str">
+        <f>VLOOKUP(F84,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B85" t="s">
+        <v>71</v>
+      </c>
+      <c r="C85" t="s">
+        <v>70</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E85">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F85" t="s">
+        <v>48</v>
+      </c>
+      <c r="G85" t="str">
+        <f>VLOOKUP(F85,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B86" t="s">
+        <v>67</v>
+      </c>
+      <c r="C86" t="s">
+        <v>66</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E86">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F86" t="s">
+        <v>39</v>
+      </c>
+      <c r="G86" t="str">
+        <f>VLOOKUP(F86,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B87" t="s">
+        <v>63</v>
+      </c>
+      <c r="C87" t="s">
+        <v>62</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E87">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F87" t="s">
+        <v>0</v>
+      </c>
+      <c r="G87" t="str">
+        <f>VLOOKUP(F87,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B88" t="s">
+        <v>59</v>
+      </c>
+      <c r="C88" t="s">
+        <v>58</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E88">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F88" t="s">
+        <v>0</v>
+      </c>
+      <c r="G88" t="str">
+        <f>VLOOKUP(F88,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B89" t="s">
+        <v>55</v>
+      </c>
+      <c r="C89" t="s">
+        <v>54</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E89">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F89" t="s">
+        <v>48</v>
+      </c>
+      <c r="G89" t="str">
+        <f>VLOOKUP(F89,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B90" t="s">
+        <v>51</v>
+      </c>
+      <c r="C90" t="s">
+        <v>50</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E90">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F90" t="s">
+        <v>48</v>
+      </c>
+      <c r="G90" t="str">
+        <f>VLOOKUP(F90,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B91" t="s">
+        <v>46</v>
+      </c>
+      <c r="C91" t="s">
+        <v>45</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E91">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F91" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" t="str">
+        <f>VLOOKUP(F91,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B92" t="s">
+        <v>42</v>
+      </c>
+      <c r="C92" t="s">
+        <v>41</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E92">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F92" t="s">
+        <v>39</v>
+      </c>
+      <c r="G92" t="str">
+        <f>VLOOKUP(F92,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B93" t="s">
+        <v>37</v>
+      </c>
+      <c r="C93" t="s">
+        <v>36</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E93">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F93" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" t="str">
+        <f>VLOOKUP(F93,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B94" t="s">
+        <v>33</v>
+      </c>
+      <c r="C94" t="s">
+        <v>32</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E94">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F94" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" t="str">
+        <f>VLOOKUP(F94,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B95" t="s">
+        <v>29</v>
+      </c>
+      <c r="C95" t="s">
+        <v>28</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E95">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F95" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" t="str">
+        <f>VLOOKUP(F95,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B96" t="s">
+        <v>25</v>
+      </c>
+      <c r="C96" t="s">
+        <v>24</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E96">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F96" t="s">
+        <v>0</v>
+      </c>
+      <c r="G96" t="str">
+        <f>VLOOKUP(F96,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B97" t="s">
+        <v>21</v>
+      </c>
+      <c r="C97" t="s">
+        <v>20</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E97">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F97" t="s">
+        <v>0</v>
+      </c>
+      <c r="G97" t="str">
+        <f>VLOOKUP(F97,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B98" t="s">
+        <v>17</v>
+      </c>
+      <c r="C98" t="s">
+        <v>16</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E98">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F98" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" t="str">
+        <f>VLOOKUP(F98,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B99" t="s">
+        <v>13</v>
+      </c>
+      <c r="C99" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E99">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F99" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" t="str">
+        <f>VLOOKUP(F99,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B100" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" t="s">
+        <v>7</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E100">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F100" t="s">
+        <v>5</v>
+      </c>
+      <c r="G100" t="str">
+        <f>VLOOKUP(F100,Sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B101" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101" t="s">
+        <v>2</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F101" t="s">
+        <v>0</v>
+      </c>
+      <c r="G101" t="str">
+        <f>VLOOKUP(F101,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1688,15 +4289,16 @@
       <c r="B2" t="s">
         <v>403</v>
       </c>
-      <c r="C2" t="s">
-        <v>402</v>
+      <c r="C2" t="str">
+        <f ca="1">"010"&amp;TEXT(RANDBETWEEN(1000000,99999999),"-0000-0000")</f>
+        <v>010-3185-4196</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>401</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E33" ca="1" si="0">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <f t="shared" ref="E2:E65" ca="1" si="0">RANDBETWEEN(1,4)</f>
+        <v>2</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
@@ -1709,8 +4311,9 @@
       <c r="B3" t="s">
         <v>399</v>
       </c>
-      <c r="C3" t="s">
-        <v>398</v>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C66" ca="1" si="1">"010"&amp;TEXT(RANDBETWEEN(1000000,99999999),"-0000-0000")</f>
+        <v>010-3505-3324</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>397</v>
@@ -1730,15 +4333,16 @@
       <c r="B4" t="s">
         <v>395</v>
       </c>
-      <c r="C4" t="s">
-        <v>394</v>
+      <c r="C4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-3613-6096</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>393</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -1751,15 +4355,16 @@
       <c r="B5" t="s">
         <v>391</v>
       </c>
-      <c r="C5" t="s">
-        <v>390</v>
+      <c r="C5" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-6197-2781</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>389</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -1772,8 +4377,9 @@
       <c r="B6" t="s">
         <v>387</v>
       </c>
-      <c r="C6" t="s">
-        <v>386</v>
+      <c r="C6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-3912-0905</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>385</v>
@@ -1793,15 +4399,16 @@
       <c r="B7" t="s">
         <v>383</v>
       </c>
-      <c r="C7" t="s">
-        <v>382</v>
+      <c r="C7" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-3337-0599</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>381</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
@@ -1814,15 +4421,16 @@
       <c r="B8" t="s">
         <v>379</v>
       </c>
-      <c r="C8" t="s">
-        <v>378</v>
+      <c r="C8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-7446-9180</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>377</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F8" t="s">
         <v>5</v>
@@ -1835,15 +4443,16 @@
       <c r="B9" t="s">
         <v>375</v>
       </c>
-      <c r="C9" t="s">
-        <v>374</v>
+      <c r="C9" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-9694-4344</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>373</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9" t="s">
         <v>48</v>
@@ -1856,15 +4465,16 @@
       <c r="B10" t="s">
         <v>371</v>
       </c>
-      <c r="C10" t="s">
-        <v>370</v>
+      <c r="C10" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-4400-0847</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>369</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1877,15 +4487,16 @@
       <c r="B11" t="s">
         <v>367</v>
       </c>
-      <c r="C11" t="s">
-        <v>366</v>
+      <c r="C11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-4333-3176</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>365</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
@@ -1898,15 +4509,16 @@
       <c r="B12" t="s">
         <v>363</v>
       </c>
-      <c r="C12" t="s">
-        <v>362</v>
+      <c r="C12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-3208-9003</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>361</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
@@ -1919,15 +4531,16 @@
       <c r="B13" t="s">
         <v>359</v>
       </c>
-      <c r="C13" t="s">
-        <v>358</v>
+      <c r="C13" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-9335-7345</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>357</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13" t="s">
         <v>48</v>
@@ -1940,8 +4553,9 @@
       <c r="B14" t="s">
         <v>355</v>
       </c>
-      <c r="C14" t="s">
-        <v>354</v>
+      <c r="C14" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-4568-2968</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>353</v>
@@ -1961,8 +4575,9 @@
       <c r="B15" t="s">
         <v>351</v>
       </c>
-      <c r="C15" t="s">
-        <v>350</v>
+      <c r="C15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-8761-6946</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>349</v>
@@ -1982,15 +4597,16 @@
       <c r="B16" t="s">
         <v>347</v>
       </c>
-      <c r="C16" t="s">
-        <v>346</v>
+      <c r="C16" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-3494-4540</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>345</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F16" t="s">
         <v>48</v>
@@ -2003,15 +4619,16 @@
       <c r="B17" t="s">
         <v>343</v>
       </c>
-      <c r="C17" t="s">
-        <v>342</v>
+      <c r="C17" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-3689-6403</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>341</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17" t="s">
         <v>39</v>
@@ -2024,15 +4641,16 @@
       <c r="B18" t="s">
         <v>339</v>
       </c>
-      <c r="C18" t="s">
-        <v>338</v>
+      <c r="C18" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-0575-3296</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>337</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18" t="s">
         <v>48</v>
@@ -2045,8 +4663,9 @@
       <c r="B19" t="s">
         <v>335</v>
       </c>
-      <c r="C19" t="s">
-        <v>334</v>
+      <c r="C19" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-4162-2426</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>333</v>
@@ -2066,15 +4685,16 @@
       <c r="B20" t="s">
         <v>331</v>
       </c>
-      <c r="C20" t="s">
-        <v>330</v>
+      <c r="C20" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-2437-9720</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>329</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
@@ -2087,15 +4707,16 @@
       <c r="B21" t="s">
         <v>327</v>
       </c>
-      <c r="C21" t="s">
-        <v>326</v>
+      <c r="C21" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-3996-1277</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>325</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
@@ -2108,15 +4729,16 @@
       <c r="B22" t="s">
         <v>323</v>
       </c>
-      <c r="C22" t="s">
-        <v>322</v>
+      <c r="C22" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-4633-7777</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>321</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F22" t="s">
         <v>48</v>
@@ -2129,15 +4751,16 @@
       <c r="B23" t="s">
         <v>319</v>
       </c>
-      <c r="C23" t="s">
-        <v>318</v>
+      <c r="C23" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-8287-6195</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>317</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23" t="s">
         <v>5</v>
@@ -2150,8 +4773,9 @@
       <c r="B24" t="s">
         <v>315</v>
       </c>
-      <c r="C24" t="s">
-        <v>314</v>
+      <c r="C24" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-4050-8859</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>313</v>
@@ -2171,15 +4795,16 @@
       <c r="B25" t="s">
         <v>311</v>
       </c>
-      <c r="C25" t="s">
-        <v>310</v>
+      <c r="C25" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-6264-2124</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>309</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25" t="s">
         <v>48</v>
@@ -2192,15 +4817,16 @@
       <c r="B26" t="s">
         <v>307</v>
       </c>
-      <c r="C26" t="s">
-        <v>306</v>
+      <c r="C26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-6779-4373</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>305</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26" t="s">
         <v>39</v>
@@ -2213,15 +4839,16 @@
       <c r="B27" t="s">
         <v>303</v>
       </c>
-      <c r="C27" t="s">
-        <v>302</v>
+      <c r="C27" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-3165-8180</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>301</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27" t="s">
         <v>39</v>
@@ -2234,8 +4861,9 @@
       <c r="B28" t="s">
         <v>299</v>
       </c>
-      <c r="C28" t="s">
-        <v>298</v>
+      <c r="C28" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-4904-1710</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>297</v>
@@ -2255,8 +4883,9 @@
       <c r="B29" t="s">
         <v>295</v>
       </c>
-      <c r="C29" t="s">
-        <v>294</v>
+      <c r="C29" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-3304-4169</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>293</v>
@@ -2276,15 +4905,16 @@
       <c r="B30" t="s">
         <v>291</v>
       </c>
-      <c r="C30" t="s">
-        <v>290</v>
+      <c r="C30" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-3398-7389</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>289</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30" t="s">
         <v>5</v>
@@ -2297,15 +4927,16 @@
       <c r="B31" t="s">
         <v>287</v>
       </c>
-      <c r="C31" t="s">
-        <v>286</v>
+      <c r="C31" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-7268-4587</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>285</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F31" t="s">
         <v>5</v>
@@ -2318,15 +4949,16 @@
       <c r="B32" t="s">
         <v>283</v>
       </c>
-      <c r="C32" t="s">
-        <v>282</v>
+      <c r="C32" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-0525-1074</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>281</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F32" t="s">
         <v>0</v>
@@ -2339,15 +4971,16 @@
       <c r="B33" t="s">
         <v>279</v>
       </c>
-      <c r="C33" t="s">
-        <v>278</v>
+      <c r="C33" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-6191-8025</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>277</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F33" t="s">
         <v>10</v>
@@ -2360,15 +4993,16 @@
       <c r="B34" t="s">
         <v>275</v>
       </c>
-      <c r="C34" t="s">
-        <v>274</v>
+      <c r="C34" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-9843-7641</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>273</v>
       </c>
       <c r="E34">
-        <f t="shared" ref="E34:E65" ca="1" si="1">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="F34" t="s">
         <v>0</v>
@@ -2381,15 +5015,16 @@
       <c r="B35" t="s">
         <v>271</v>
       </c>
-      <c r="C35" t="s">
-        <v>270</v>
+      <c r="C35" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-5252-4118</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>269</v>
       </c>
       <c r="E35">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
       </c>
       <c r="F35" t="s">
         <v>48</v>
@@ -2402,14 +5037,15 @@
       <c r="B36" t="s">
         <v>267</v>
       </c>
-      <c r="C36" t="s">
-        <v>266</v>
+      <c r="C36" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-4530-1455</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>265</v>
       </c>
       <c r="E36">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
       <c r="F36" t="s">
@@ -2423,15 +5059,16 @@
       <c r="B37" t="s">
         <v>263</v>
       </c>
-      <c r="C37" t="s">
-        <v>262</v>
+      <c r="C37" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-6679-8182</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>261</v>
       </c>
       <c r="E37">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
       </c>
       <c r="F37" t="s">
         <v>0</v>
@@ -2444,15 +5081,16 @@
       <c r="B38" t="s">
         <v>259</v>
       </c>
-      <c r="C38" t="s">
-        <v>258</v>
+      <c r="C38" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-9240-8407</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>257</v>
       </c>
       <c r="E38">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
       </c>
       <c r="F38" t="s">
         <v>5</v>
@@ -2465,15 +5103,16 @@
       <c r="B39" t="s">
         <v>255</v>
       </c>
-      <c r="C39" t="s">
-        <v>254</v>
+      <c r="C39" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-2928-9632</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>253</v>
       </c>
       <c r="E39">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
       </c>
       <c r="F39" t="s">
         <v>0</v>
@@ -2486,14 +5125,15 @@
       <c r="B40" t="s">
         <v>251</v>
       </c>
-      <c r="C40" t="s">
-        <v>250</v>
+      <c r="C40" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-9345-3471</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>249</v>
       </c>
       <c r="E40">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="F40" t="s">
@@ -2507,15 +5147,16 @@
       <c r="B41" t="s">
         <v>247</v>
       </c>
-      <c r="C41" t="s">
-        <v>246</v>
+      <c r="C41" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-9222-6450</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>245</v>
       </c>
       <c r="E41">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
       </c>
       <c r="F41" t="s">
         <v>39</v>
@@ -2528,15 +5169,16 @@
       <c r="B42" t="s">
         <v>243</v>
       </c>
-      <c r="C42" t="s">
-        <v>242</v>
+      <c r="C42" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-8476-4637</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>241</v>
       </c>
       <c r="E42">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
@@ -2549,15 +5191,16 @@
       <c r="B43" t="s">
         <v>239</v>
       </c>
-      <c r="C43" t="s">
-        <v>238</v>
+      <c r="C43" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-5177-5379</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>237</v>
       </c>
       <c r="E43">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="F43" t="s">
         <v>0</v>
@@ -2570,14 +5213,15 @@
       <c r="B44" t="s">
         <v>235</v>
       </c>
-      <c r="C44" t="s">
-        <v>234</v>
+      <c r="C44" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-2257-2563</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>233</v>
       </c>
       <c r="E44">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="F44" t="s">
@@ -2591,15 +5235,16 @@
       <c r="B45" t="s">
         <v>231</v>
       </c>
-      <c r="C45" t="s">
-        <v>230</v>
+      <c r="C45" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-5323-8200</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>229</v>
       </c>
       <c r="E45">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
@@ -2612,15 +5257,16 @@
       <c r="B46" t="s">
         <v>227</v>
       </c>
-      <c r="C46" t="s">
-        <v>226</v>
+      <c r="C46" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-9316-3832</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E46">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
       </c>
       <c r="F46" t="s">
         <v>39</v>
@@ -2633,14 +5279,15 @@
       <c r="B47" t="s">
         <v>223</v>
       </c>
-      <c r="C47" t="s">
-        <v>222</v>
+      <c r="C47" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-1638-6643</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>221</v>
       </c>
       <c r="E47">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
       <c r="F47" t="s">
@@ -2654,15 +5301,16 @@
       <c r="B48" t="s">
         <v>219</v>
       </c>
-      <c r="C48" t="s">
-        <v>218</v>
+      <c r="C48" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-9657-2835</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>217</v>
       </c>
       <c r="E48">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
       </c>
       <c r="F48" t="s">
         <v>39</v>
@@ -2675,14 +5323,15 @@
       <c r="B49" t="s">
         <v>215</v>
       </c>
-      <c r="C49" t="s">
-        <v>214</v>
+      <c r="C49" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-7150-3240</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>213</v>
       </c>
       <c r="E49">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="F49" t="s">
@@ -2696,15 +5345,16 @@
       <c r="B50" t="s">
         <v>211</v>
       </c>
-      <c r="C50" t="s">
-        <v>210</v>
+      <c r="C50" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-1127-3924</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>209</v>
       </c>
       <c r="E50">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
       </c>
       <c r="F50" t="s">
         <v>0</v>
@@ -2717,14 +5367,15 @@
       <c r="B51" t="s">
         <v>207</v>
       </c>
-      <c r="C51" t="s">
-        <v>206</v>
+      <c r="C51" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-7739-2541</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>205</v>
       </c>
       <c r="E51">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
       <c r="F51" t="s">
@@ -2738,14 +5389,15 @@
       <c r="B52" t="s">
         <v>203</v>
       </c>
-      <c r="C52" t="s">
-        <v>202</v>
+      <c r="C52" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-5043-0739</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>201</v>
       </c>
       <c r="E52">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="F52" t="s">
@@ -2759,15 +5411,16 @@
       <c r="B53" t="s">
         <v>199</v>
       </c>
-      <c r="C53" t="s">
-        <v>198</v>
+      <c r="C53" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-3061-7135</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>197</v>
       </c>
       <c r="E53">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
       </c>
       <c r="F53" t="s">
         <v>10</v>
@@ -2780,15 +5433,16 @@
       <c r="B54" t="s">
         <v>195</v>
       </c>
-      <c r="C54" t="s">
-        <v>194</v>
+      <c r="C54" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-0894-4877</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>193</v>
       </c>
       <c r="E54">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
       </c>
       <c r="F54" t="s">
         <v>39</v>
@@ -2801,15 +5455,16 @@
       <c r="B55" t="s">
         <v>191</v>
       </c>
-      <c r="C55" t="s">
-        <v>190</v>
+      <c r="C55" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-4543-9352</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>189</v>
       </c>
       <c r="E55">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
       </c>
       <c r="F55" t="s">
         <v>10</v>
@@ -2822,15 +5477,16 @@
       <c r="B56" t="s">
         <v>187</v>
       </c>
-      <c r="C56" t="s">
-        <v>186</v>
+      <c r="C56" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-9692-8824</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>185</v>
       </c>
       <c r="E56">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="F56" t="s">
         <v>10</v>
@@ -2843,15 +5499,16 @@
       <c r="B57" t="s">
         <v>183</v>
       </c>
-      <c r="C57" t="s">
-        <v>182</v>
+      <c r="C57" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-9461-0736</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E57">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
       </c>
       <c r="F57" t="s">
         <v>48</v>
@@ -2864,14 +5521,15 @@
       <c r="B58" t="s">
         <v>179</v>
       </c>
-      <c r="C58" t="s">
-        <v>178</v>
+      <c r="C58" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-2928-8883</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>177</v>
       </c>
       <c r="E58">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
       <c r="F58" t="s">
@@ -2885,15 +5543,16 @@
       <c r="B59" t="s">
         <v>175</v>
       </c>
-      <c r="C59" t="s">
-        <v>174</v>
+      <c r="C59" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-5458-8559</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>173</v>
       </c>
       <c r="E59">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
       </c>
       <c r="F59" t="s">
         <v>39</v>
@@ -2906,14 +5565,15 @@
       <c r="B60" t="s">
         <v>171</v>
       </c>
-      <c r="C60" t="s">
-        <v>170</v>
+      <c r="C60" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-7921-7143</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>169</v>
       </c>
       <c r="E60">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="F60" t="s">
@@ -2927,15 +5587,16 @@
       <c r="B61" t="s">
         <v>167</v>
       </c>
-      <c r="C61" t="s">
-        <v>166</v>
+      <c r="C61" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-9894-2941</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>165</v>
       </c>
       <c r="E61">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
       </c>
       <c r="F61" t="s">
         <v>0</v>
@@ -2948,15 +5609,16 @@
       <c r="B62" t="s">
         <v>163</v>
       </c>
-      <c r="C62" t="s">
-        <v>162</v>
+      <c r="C62" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-8655-0475</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>161</v>
       </c>
       <c r="E62">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="F62" t="s">
         <v>39</v>
@@ -2969,14 +5631,15 @@
       <c r="B63" t="s">
         <v>159</v>
       </c>
-      <c r="C63" t="s">
-        <v>158</v>
+      <c r="C63" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-5722-2188</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>157</v>
       </c>
       <c r="E63">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="F63" t="s">
@@ -2990,15 +5653,16 @@
       <c r="B64" t="s">
         <v>155</v>
       </c>
-      <c r="C64" t="s">
-        <v>154</v>
+      <c r="C64" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-7210-5502</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>153</v>
       </c>
       <c r="E64">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="F64" t="s">
         <v>0</v>
@@ -3011,15 +5675,16 @@
       <c r="B65" t="s">
         <v>151</v>
       </c>
-      <c r="C65" t="s">
-        <v>150</v>
+      <c r="C65" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-9523-5526</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>149</v>
       </c>
       <c r="E65">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
       </c>
       <c r="F65" t="s">
         <v>48</v>
@@ -3032,15 +5697,16 @@
       <c r="B66" t="s">
         <v>147</v>
       </c>
-      <c r="C66" t="s">
-        <v>146</v>
+      <c r="C66" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-0627-4441</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>145</v>
       </c>
       <c r="E66">
         <f t="shared" ref="E66:E101" ca="1" si="2">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F66" t="s">
         <v>5</v>
@@ -3053,15 +5719,16 @@
       <c r="B67" t="s">
         <v>143</v>
       </c>
-      <c r="C67" t="s">
-        <v>142</v>
+      <c r="C67" t="str">
+        <f t="shared" ref="C67:C101" ca="1" si="3">"010"&amp;TEXT(RANDBETWEEN(1000000,99999999),"-0000-0000")</f>
+        <v>010-4539-1463</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>141</v>
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F67" t="s">
         <v>48</v>
@@ -3074,15 +5741,16 @@
       <c r="B68" t="s">
         <v>139</v>
       </c>
-      <c r="C68" t="s">
-        <v>138</v>
+      <c r="C68" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>010-5563-4019</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>137</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
@@ -3095,15 +5763,16 @@
       <c r="B69" t="s">
         <v>135</v>
       </c>
-      <c r="C69" t="s">
-        <v>134</v>
+      <c r="C69" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>010-8177-4833</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>133</v>
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F69" t="s">
         <v>0</v>
@@ -3116,15 +5785,16 @@
       <c r="B70" t="s">
         <v>131</v>
       </c>
-      <c r="C70" t="s">
-        <v>130</v>
+      <c r="C70" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>010-6711-8026</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>129</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F70" t="s">
         <v>10</v>
@@ -3137,8 +5807,9 @@
       <c r="B71" t="s">
         <v>127</v>
       </c>
-      <c r="C71" t="s">
-        <v>126</v>
+      <c r="C71" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>010-4099-7097</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>125</v>
@@ -3158,8 +5829,9 @@
       <c r="B72" t="s">
         <v>123</v>
       </c>
-      <c r="C72" t="s">
-        <v>122</v>
+      <c r="C72" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>010-1283-2680</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>121</v>
@@ -3179,15 +5851,16 @@
       <c r="B73" t="s">
         <v>119</v>
       </c>
-      <c r="C73" t="s">
-        <v>118</v>
+      <c r="C73" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>010-4979-1608</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>117</v>
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F73" t="s">
         <v>48</v>
@@ -3200,8 +5873,9 @@
       <c r="B74" t="s">
         <v>115</v>
       </c>
-      <c r="C74" t="s">
-        <v>114</v>
+      <c r="C74" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>010-3167-2111</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>113</v>
@@ -3221,15 +5895,16 @@
       <c r="B75" t="s">
         <v>111</v>
       </c>
-      <c r="C75" t="s">
-        <v>110</v>
+      <c r="C75" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>010-1148-4760</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F75" t="s">
         <v>5</v>
@@ -3242,15 +5917,16 @@
       <c r="B76" t="s">
         <v>107</v>
       </c>
-      <c r="C76" t="s">
-        <v>106</v>
+      <c r="C76" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>010-7842-3226</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>105</v>
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F76" t="s">
         <v>39</v>
@@ -3263,15 +5939,16 @@
       <c r="B77" t="s">
         <v>103</v>
       </c>
-      <c r="C77" t="s">
-        <v>102</v>
+      <c r="C77" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>010-8851-5545</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>101</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F77" t="s">
         <v>39</v>
@@ -3284,15 +5961,16 @@
       <c r="B78" t="s">
         <v>99</v>
       </c>
-      <c r="C78" t="s">
-        <v>98</v>
+      <c r="C78" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>010-6849-2301</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>97</v>
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F78" t="s">
         <v>39</v>
@@ -3305,8 +5983,9 @@
       <c r="B79" t="s">
         <v>95</v>
       </c>
-      <c r="C79" t="s">
-        <v>94</v>
+      <c r="C79" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>010-0787-9257</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>93</v>
@@ -3326,8 +6005,9 @@
       <c r="B80" t="s">
         <v>91</v>
       </c>
-      <c r="C80" t="s">
-        <v>90</v>
+      <c r="C80" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>010-4985-4221</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>89</v>
@@ -3347,8 +6027,9 @@
       <c r="B81" t="s">
         <v>87</v>
       </c>
-      <c r="C81" t="s">
-        <v>86</v>
+      <c r="C81" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>010-3743-4440</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>85</v>
@@ -3368,8 +6049,9 @@
       <c r="B82" t="s">
         <v>83</v>
       </c>
-      <c r="C82" t="s">
-        <v>82</v>
+      <c r="C82" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>010-7956-3885</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>81</v>
@@ -3389,15 +6071,16 @@
       <c r="B83" t="s">
         <v>79</v>
       </c>
-      <c r="C83" t="s">
-        <v>78</v>
+      <c r="C83" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>010-0775-5711</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F83" t="s">
         <v>39</v>
@@ -3410,15 +6093,16 @@
       <c r="B84" t="s">
         <v>75</v>
       </c>
-      <c r="C84" t="s">
-        <v>74</v>
+      <c r="C84" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>010-8283-7796</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>73</v>
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F84" t="s">
         <v>0</v>
@@ -3431,15 +6115,16 @@
       <c r="B85" t="s">
         <v>71</v>
       </c>
-      <c r="C85" t="s">
-        <v>70</v>
+      <c r="C85" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>010-0205-3305</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F85" t="s">
         <v>48</v>
@@ -3452,15 +6137,16 @@
       <c r="B86" t="s">
         <v>67</v>
       </c>
-      <c r="C86" t="s">
-        <v>66</v>
+      <c r="C86" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>010-2504-5817</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F86" t="s">
         <v>39</v>
@@ -3473,15 +6159,16 @@
       <c r="B87" t="s">
         <v>63</v>
       </c>
-      <c r="C87" t="s">
-        <v>62</v>
+      <c r="C87" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>010-6055-6907</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>61</v>
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F87" t="s">
         <v>0</v>
@@ -3494,15 +6181,16 @@
       <c r="B88" t="s">
         <v>59</v>
       </c>
-      <c r="C88" t="s">
-        <v>58</v>
+      <c r="C88" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>010-3132-9855</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>57</v>
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F88" t="s">
         <v>0</v>
@@ -3515,15 +6203,16 @@
       <c r="B89" t="s">
         <v>55</v>
       </c>
-      <c r="C89" t="s">
-        <v>54</v>
+      <c r="C89" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>010-3196-7390</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F89" t="s">
         <v>48</v>
@@ -3536,15 +6225,16 @@
       <c r="B90" t="s">
         <v>51</v>
       </c>
-      <c r="C90" t="s">
-        <v>50</v>
+      <c r="C90" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>010-1705-7454</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F90" t="s">
         <v>48</v>
@@ -3557,15 +6247,16 @@
       <c r="B91" t="s">
         <v>46</v>
       </c>
-      <c r="C91" t="s">
-        <v>45</v>
+      <c r="C91" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>010-2144-7995</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F91" t="s">
         <v>10</v>
@@ -3578,15 +6269,16 @@
       <c r="B92" t="s">
         <v>42</v>
       </c>
-      <c r="C92" t="s">
-        <v>41</v>
+      <c r="C92" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>010-3369-5359</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F92" t="s">
         <v>39</v>
@@ -3599,15 +6291,16 @@
       <c r="B93" t="s">
         <v>37</v>
       </c>
-      <c r="C93" t="s">
-        <v>36</v>
+      <c r="C93" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>010-5077-2966</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F93" t="s">
         <v>10</v>
@@ -3620,15 +6313,16 @@
       <c r="B94" t="s">
         <v>33</v>
       </c>
-      <c r="C94" t="s">
-        <v>32</v>
+      <c r="C94" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>010-3124-7619</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F94" t="s">
         <v>10</v>
@@ -3641,15 +6335,16 @@
       <c r="B95" t="s">
         <v>29</v>
       </c>
-      <c r="C95" t="s">
-        <v>28</v>
+      <c r="C95" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>010-2554-3152</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F95" t="s">
         <v>10</v>
@@ -3662,8 +6357,9 @@
       <c r="B96" t="s">
         <v>25</v>
       </c>
-      <c r="C96" t="s">
-        <v>24</v>
+      <c r="C96" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>010-9461-8084</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>23</v>
@@ -3683,15 +6379,16 @@
       <c r="B97" t="s">
         <v>21</v>
       </c>
-      <c r="C97" t="s">
-        <v>20</v>
+      <c r="C97" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>010-5054-1547</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F97" t="s">
         <v>0</v>
@@ -3704,15 +6401,16 @@
       <c r="B98" t="s">
         <v>17</v>
       </c>
-      <c r="C98" t="s">
-        <v>16</v>
+      <c r="C98" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>010-4036-2909</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F98" t="s">
         <v>10</v>
@@ -3725,15 +6423,16 @@
       <c r="B99" t="s">
         <v>13</v>
       </c>
-      <c r="C99" t="s">
-        <v>12</v>
+      <c r="C99" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>010-3029-7354</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F99" t="s">
         <v>10</v>
@@ -3746,15 +6445,16 @@
       <c r="B100" t="s">
         <v>8</v>
       </c>
-      <c r="C100" t="s">
-        <v>7</v>
+      <c r="C100" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>010-0394-9768</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F100" t="s">
         <v>5</v>
@@ -3767,8 +6467,9 @@
       <c r="B101" t="s">
         <v>3</v>
       </c>
-      <c r="C101" t="s">
-        <v>2</v>
+      <c r="C101" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>010-3252-0865</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>1</v>
@@ -3776,2251 +6477,6 @@
       <c r="E101">
         <f t="shared" ca="1" si="2"/>
         <v>1</v>
-      </c>
-      <c r="F101" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F101"/>
-  <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.25" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="14.125" customWidth="1"/>
-    <col min="4" max="4" width="48.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B1" t="s">
-        <v>408</v>
-      </c>
-      <c r="C1" t="s">
-        <v>407</v>
-      </c>
-      <c r="D1" t="s">
-        <v>406</v>
-      </c>
-      <c r="E1" t="s">
-        <v>405</v>
-      </c>
-      <c r="F1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="B2" t="s">
-        <v>403</v>
-      </c>
-      <c r="C2" t="str">
-        <f ca="1">"010"&amp;TEXT(RANDBETWEEN(1000000,99999999),"-0000-0000")</f>
-        <v>010-9808-7653</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="E2">
-        <f t="shared" ref="E2:E65" ca="1" si="0">RANDBETWEEN(1,4)</f>
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="B3" t="s">
-        <v>399</v>
-      </c>
-      <c r="C3" t="str">
-        <f t="shared" ref="C3:C66" ca="1" si="1">"010"&amp;TEXT(RANDBETWEEN(1000000,99999999),"-0000-0000")</f>
-        <v>010-0386-5676</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="B4" t="s">
-        <v>395</v>
-      </c>
-      <c r="C4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>010-2480-3376</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="E4">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="B5" t="s">
-        <v>391</v>
-      </c>
-      <c r="C5" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>010-3136-5167</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="E5">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B6" t="s">
-        <v>387</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>010-9213-0721</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="E6">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="B7" t="s">
-        <v>383</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>010-9886-1034</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="E7">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="B8" t="s">
-        <v>379</v>
-      </c>
-      <c r="C8" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>010-3370-4328</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="E8">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="B9" t="s">
-        <v>375</v>
-      </c>
-      <c r="C9" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>010-7586-4548</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="E9">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="B10" t="s">
-        <v>371</v>
-      </c>
-      <c r="C10" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>010-3165-6201</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="E10">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="B11" t="s">
-        <v>367</v>
-      </c>
-      <c r="C11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>010-2764-7432</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="E11">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="B12" t="s">
-        <v>363</v>
-      </c>
-      <c r="C12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>010-5140-8328</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="E12">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="B13" t="s">
-        <v>359</v>
-      </c>
-      <c r="C13" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>010-8748-6387</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="E13">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="B14" t="s">
-        <v>355</v>
-      </c>
-      <c r="C14" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>010-5103-6176</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="E14">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="B15" t="s">
-        <v>351</v>
-      </c>
-      <c r="C15" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>010-4943-9999</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="E15">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B16" t="s">
-        <v>347</v>
-      </c>
-      <c r="C16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>010-1508-7047</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="E16">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="B17" t="s">
-        <v>343</v>
-      </c>
-      <c r="C17" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>010-3793-4721</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="E17">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="B18" t="s">
-        <v>339</v>
-      </c>
-      <c r="C18" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>010-4230-7346</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="E18">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="B19" t="s">
-        <v>335</v>
-      </c>
-      <c r="C19" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>010-1792-7394</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="E19">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="B20" t="s">
-        <v>331</v>
-      </c>
-      <c r="C20" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>010-6641-8650</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="E20">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="B21" t="s">
-        <v>327</v>
-      </c>
-      <c r="C21" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>010-4959-7349</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="E21">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="B22" t="s">
-        <v>323</v>
-      </c>
-      <c r="C22" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>010-8228-3926</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="E22">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="B23" t="s">
-        <v>319</v>
-      </c>
-      <c r="C23" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>010-1758-4271</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="E23">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="B24" t="s">
-        <v>315</v>
-      </c>
-      <c r="C24" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>010-4681-5070</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="E24">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="B25" t="s">
-        <v>311</v>
-      </c>
-      <c r="C25" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>010-9563-8813</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="E25">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B26" t="s">
-        <v>307</v>
-      </c>
-      <c r="C26" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>010-6534-3222</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="E26">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="B27" t="s">
-        <v>303</v>
-      </c>
-      <c r="C27" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>010-5589-1161</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="E27">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="B28" t="s">
-        <v>299</v>
-      </c>
-      <c r="C28" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>010-9116-0968</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E28">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F28" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="B29" t="s">
-        <v>295</v>
-      </c>
-      <c r="C29" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>010-0867-6936</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="E29">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B30" t="s">
-        <v>291</v>
-      </c>
-      <c r="C30" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>010-4727-8483</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="E30">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F30" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="B31" t="s">
-        <v>287</v>
-      </c>
-      <c r="C31" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>010-5802-1487</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="E31">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F31" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="B32" t="s">
-        <v>283</v>
-      </c>
-      <c r="C32" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>010-9384-7046</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="E32">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F32" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="B33" t="s">
-        <v>279</v>
-      </c>
-      <c r="C33" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>010-4335-8547</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="E33">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F33" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="B34" t="s">
-        <v>275</v>
-      </c>
-      <c r="C34" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>010-5454-6802</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="E34">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F34" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B35" t="s">
-        <v>271</v>
-      </c>
-      <c r="C35" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>010-6248-6456</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="E35">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="B36" t="s">
-        <v>267</v>
-      </c>
-      <c r="C36" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>010-7807-6130</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="E36">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F36" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="B37" t="s">
-        <v>263</v>
-      </c>
-      <c r="C37" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>010-4984-9220</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="E37">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F37" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B38" t="s">
-        <v>259</v>
-      </c>
-      <c r="C38" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>010-7419-6615</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="E38">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F38" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B39" t="s">
-        <v>255</v>
-      </c>
-      <c r="C39" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>010-4332-6124</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="E39">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F39" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="B40" t="s">
-        <v>251</v>
-      </c>
-      <c r="C40" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>010-6671-1252</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="E40">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F40" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="B41" t="s">
-        <v>247</v>
-      </c>
-      <c r="C41" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>010-0315-6220</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E41">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F41" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="B42" t="s">
-        <v>243</v>
-      </c>
-      <c r="C42" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>010-6941-3757</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E42">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F42" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B43" t="s">
-        <v>239</v>
-      </c>
-      <c r="C43" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>010-4041-4107</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="E43">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F43" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="B44" t="s">
-        <v>235</v>
-      </c>
-      <c r="C44" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>010-5745-4241</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="E44">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F44" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B45" t="s">
-        <v>231</v>
-      </c>
-      <c r="C45" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>010-7302-9028</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E45">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F45" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B46" t="s">
-        <v>227</v>
-      </c>
-      <c r="C46" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>010-9353-2166</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E46">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F46" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B47" t="s">
-        <v>223</v>
-      </c>
-      <c r="C47" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>010-2350-6789</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="E47">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F47" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B48" t="s">
-        <v>219</v>
-      </c>
-      <c r="C48" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>010-9136-6835</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="E48">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F48" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B49" t="s">
-        <v>215</v>
-      </c>
-      <c r="C49" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>010-7664-3027</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E49">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F49" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B50" t="s">
-        <v>211</v>
-      </c>
-      <c r="C50" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>010-4483-3970</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="E50">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F50" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B51" t="s">
-        <v>207</v>
-      </c>
-      <c r="C51" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>010-8257-7247</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="E51">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F51" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B52" t="s">
-        <v>203</v>
-      </c>
-      <c r="C52" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>010-4246-2238</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="E52">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F52" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B53" t="s">
-        <v>199</v>
-      </c>
-      <c r="C53" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>010-6950-2686</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E53">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F53" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B54" t="s">
-        <v>195</v>
-      </c>
-      <c r="C54" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>010-2807-9986</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="E54">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F54" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B55" t="s">
-        <v>191</v>
-      </c>
-      <c r="C55" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>010-3508-3740</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E55">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F55" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B56" t="s">
-        <v>187</v>
-      </c>
-      <c r="C56" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>010-2877-5303</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E56">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F56" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B57" t="s">
-        <v>183</v>
-      </c>
-      <c r="C57" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>010-1417-5324</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="E57">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F57" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B58" t="s">
-        <v>179</v>
-      </c>
-      <c r="C58" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>010-4133-1259</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E58">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B59" t="s">
-        <v>175</v>
-      </c>
-      <c r="C59" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>010-1128-5336</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E59">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F59" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B60" t="s">
-        <v>171</v>
-      </c>
-      <c r="C60" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>010-4200-7491</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E60">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F60" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B61" t="s">
-        <v>167</v>
-      </c>
-      <c r="C61" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>010-6891-9779</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E61">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F61" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B62" t="s">
-        <v>163</v>
-      </c>
-      <c r="C62" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>010-5940-1984</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E62">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F62" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B63" t="s">
-        <v>159</v>
-      </c>
-      <c r="C63" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>010-9310-7031</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E63">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F63" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B64" t="s">
-        <v>155</v>
-      </c>
-      <c r="C64" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>010-3671-7794</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E64">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F64" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B65" t="s">
-        <v>151</v>
-      </c>
-      <c r="C65" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>010-3983-5368</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E65">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F65" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B66" t="s">
-        <v>147</v>
-      </c>
-      <c r="C66" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>010-5206-7719</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E66">
-        <f t="shared" ref="E66:E101" ca="1" si="2">RANDBETWEEN(1,4)</f>
-        <v>4</v>
-      </c>
-      <c r="F66" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B67" t="s">
-        <v>143</v>
-      </c>
-      <c r="C67" t="str">
-        <f t="shared" ref="C67:C101" ca="1" si="3">"010"&amp;TEXT(RANDBETWEEN(1000000,99999999),"-0000-0000")</f>
-        <v>010-5671-2492</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E67">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="F67" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B68" t="s">
-        <v>139</v>
-      </c>
-      <c r="C68" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>010-3878-8033</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E68">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="F68" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B69" t="s">
-        <v>135</v>
-      </c>
-      <c r="C69" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>010-7852-3100</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E69">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F69" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B70" t="s">
-        <v>131</v>
-      </c>
-      <c r="C70" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>010-8214-3325</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E70">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F70" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B71" t="s">
-        <v>127</v>
-      </c>
-      <c r="C71" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>010-3575-9823</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E71">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="F71" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B72" t="s">
-        <v>123</v>
-      </c>
-      <c r="C72" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>010-2155-9474</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E72">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="F72" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B73" t="s">
-        <v>119</v>
-      </c>
-      <c r="C73" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>010-8730-6397</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E73">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F73" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B74" t="s">
-        <v>115</v>
-      </c>
-      <c r="C74" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>010-4749-8776</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E74">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="F74" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B75" t="s">
-        <v>111</v>
-      </c>
-      <c r="C75" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>010-1316-0152</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E75">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="F75" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B76" t="s">
-        <v>107</v>
-      </c>
-      <c r="C76" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>010-7155-6811</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E76">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="F76" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B77" t="s">
-        <v>103</v>
-      </c>
-      <c r="C77" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>010-6024-7599</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E77">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="F77" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B78" t="s">
-        <v>99</v>
-      </c>
-      <c r="C78" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>010-6338-4553</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E78">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="F78" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B79" t="s">
-        <v>95</v>
-      </c>
-      <c r="C79" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>010-6697-7402</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E79">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="F79" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B80" t="s">
-        <v>91</v>
-      </c>
-      <c r="C80" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>010-8803-2104</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E80">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="F80" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B81" t="s">
-        <v>87</v>
-      </c>
-      <c r="C81" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>010-0849-1136</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E81">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F81" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B82" t="s">
-        <v>83</v>
-      </c>
-      <c r="C82" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>010-1722-2756</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E82">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="F82" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B83" t="s">
-        <v>79</v>
-      </c>
-      <c r="C83" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>010-3035-6078</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E83">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F83" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B84" t="s">
-        <v>75</v>
-      </c>
-      <c r="C84" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>010-7959-4359</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E84">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="F84" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B85" t="s">
-        <v>71</v>
-      </c>
-      <c r="C85" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>010-6306-6069</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E85">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F85" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B86" t="s">
-        <v>67</v>
-      </c>
-      <c r="C86" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>010-3657-5072</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E86">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="F86" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B87" t="s">
-        <v>63</v>
-      </c>
-      <c r="C87" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>010-6462-7672</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E87">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="F87" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B88" t="s">
-        <v>59</v>
-      </c>
-      <c r="C88" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>010-0180-8774</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E88">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="F88" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B89" t="s">
-        <v>55</v>
-      </c>
-      <c r="C89" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>010-9370-0541</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E89">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="F89" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B90" t="s">
-        <v>51</v>
-      </c>
-      <c r="C90" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>010-6523-2709</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E90">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F90" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B91" t="s">
-        <v>46</v>
-      </c>
-      <c r="C91" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>010-6797-3535</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E91">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="F91" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B92" t="s">
-        <v>42</v>
-      </c>
-      <c r="C92" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>010-3936-4565</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E92">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F92" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B93" t="s">
-        <v>37</v>
-      </c>
-      <c r="C93" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>010-9936-5478</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E93">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="F93" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B94" t="s">
-        <v>33</v>
-      </c>
-      <c r="C94" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>010-4711-4449</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E94">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="F94" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B95" t="s">
-        <v>29</v>
-      </c>
-      <c r="C95" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>010-8507-2532</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E95">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="F95" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B96" t="s">
-        <v>25</v>
-      </c>
-      <c r="C96" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>010-7211-1193</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E96">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F96" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B97" t="s">
-        <v>21</v>
-      </c>
-      <c r="C97" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>010-8488-9881</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E97">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F97" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B98" t="s">
-        <v>17</v>
-      </c>
-      <c r="C98" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>010-8451-7150</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E98">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="F98" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B99" t="s">
-        <v>13</v>
-      </c>
-      <c r="C99" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>010-1168-8216</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E99">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="F99" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B100" t="s">
-        <v>8</v>
-      </c>
-      <c r="C100" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>010-5277-0383</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E100">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="F100" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B101" t="s">
-        <v>3</v>
-      </c>
-      <c r="C101" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>010-7658-5839</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E101">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
       </c>
       <c r="F101" t="s">
         <v>0</v>
@@ -6035,367 +6491,2597 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E1" t="s">
+        <v>415</v>
+      </c>
+      <c r="F1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B2">
+        <f ca="1">RANDBETWEEN(50,100)</f>
+        <v>71</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:F21" ca="1" si="0">RANDBETWEEN(50,100)</f>
+        <v>65</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ca="1" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ca="1" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ca="1" si="0"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:F18" ca="1" si="1">RANDBETWEEN(50,100)</f>
+        <v>53</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ca="1" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ca="1" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ca="1" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ca="1" si="0"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ca="1" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ca="1" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ca="1" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ca="1" si="0"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ca="1" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ca="1" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ca="1" si="0"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ca="1" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ca="1" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ca="1" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ca="1" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ca="1" si="0"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ca="1" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ca="1" si="0"/>
+        <v>97</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ca="1" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ca="1" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ca="1" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ca="1" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ca="1" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ca="1" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ca="1" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ca="1" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ca="1" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ca="1" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ca="1" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ca="1" si="0"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ca="1" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ca="1" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ca="1" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ca="1" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ca="1" si="0"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ca="1" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ca="1" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ca="1" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ca="1" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ca="1" si="0"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ca="1" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ca="1" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ca="1" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ca="1" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ca="1" si="0"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ca="1" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ca="1" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ca="1" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ca="1" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ca="1" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ca="1" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ca="1" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ca="1" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ca="1" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ca="1" si="0"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ca="1" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ca="1" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ca="1" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ca="1" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ca="1" si="0"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B16">
+        <f t="shared" ca="1" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ca="1" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ca="1" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ca="1" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ca="1" si="0"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ca="1" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ca="1" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ca="1" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ca="1" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ca="1" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ca="1" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ca="1" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ca="1" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ca="1" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ca="1" si="0"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ref="B19:F34" ca="1" si="2">RANDBETWEEN(50,100)</f>
+        <v>69</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ca="1" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ca="1" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ca="1" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ca="1" si="0"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ca="1" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ca="1" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ca="1" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ca="1" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ca="1" si="0"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ca="1" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ca="1" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ca="1" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ca="1" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ca="1" si="0"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ca="1" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ca="1" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ca="1" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ca="1" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ca="1" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="H22" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B23">
+        <f t="shared" ca="1" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ca="1" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ca="1" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ca="1" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ca="1" si="2"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ca="1" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ca="1" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ca="1" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ca="1" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ca="1" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ca="1" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ca="1" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ca="1" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ca="1" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ca="1" si="2"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ca="1" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ca="1" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ca="1" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ca="1" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="F26">
+        <f t="shared" ca="1" si="2"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ca="1" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ca="1" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ca="1" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ca="1" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ca="1" si="2"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ca="1" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ca="1" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ca="1" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ca="1" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ca="1" si="2"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ca="1" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ca="1" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ca="1" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ca="1" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ca="1" si="2"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B30">
+        <f t="shared" ca="1" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ca="1" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ca="1" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ca="1" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="F30">
+        <f t="shared" ca="1" si="2"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ca="1" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ca="1" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ca="1" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ca="1" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ca="1" si="2"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ca="1" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ca="1" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ca="1" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="E32">
+        <f t="shared" ca="1" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="F32">
+        <f t="shared" ca="1" si="2"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ca="1" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ca="1" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ca="1" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ca="1" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ca="1" si="2"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ca="1" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ca="1" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ca="1" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ca="1" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="F34">
+        <f t="shared" ca="1" si="2"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B35">
+        <f t="shared" ref="B35:F50" ca="1" si="3">RANDBETWEEN(50,100)</f>
+        <v>84</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ca="1" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ca="1" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ca="1" si="3"/>
+        <v>88</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ca="1" si="3"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B36">
+        <f t="shared" ca="1" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ca="1" si="3"/>
+        <v>87</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ca="1" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ca="1" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="F36">
+        <f t="shared" ca="1" si="3"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B37">
+        <f t="shared" ca="1" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ca="1" si="3"/>
+        <v>62</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ca="1" si="3"/>
+        <v>51</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ca="1" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="F37">
+        <f t="shared" ca="1" si="3"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B38">
+        <f t="shared" ca="1" si="3"/>
+        <v>59</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ca="1" si="3"/>
+        <v>57</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ca="1" si="3"/>
+        <v>67</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ca="1" si="3"/>
+        <v>86</v>
+      </c>
+      <c r="F38">
+        <f t="shared" ca="1" si="3"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B39">
+        <f t="shared" ca="1" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ca="1" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ca="1" si="3"/>
+        <v>74</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ca="1" si="3"/>
+        <v>95</v>
+      </c>
+      <c r="F39">
+        <f t="shared" ca="1" si="3"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B40">
+        <f t="shared" ca="1" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ca="1" si="3"/>
+        <v>67</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ca="1" si="3"/>
+        <v>53</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ca="1" si="3"/>
+        <v>92</v>
+      </c>
+      <c r="F40">
+        <f t="shared" ca="1" si="3"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B41">
+        <f t="shared" ca="1" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ca="1" si="3"/>
+        <v>59</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ca="1" si="3"/>
+        <v>53</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ca="1" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="F41">
+        <f t="shared" ca="1" si="3"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B42">
+        <f t="shared" ca="1" si="3"/>
+        <v>82</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ca="1" si="3"/>
+        <v>93</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ca="1" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ca="1" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="F42">
+        <f t="shared" ca="1" si="3"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B43">
+        <f t="shared" ca="1" si="3"/>
+        <v>57</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ca="1" si="3"/>
+        <v>91</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ca="1" si="3"/>
+        <v>67</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ca="1" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="F43">
+        <f t="shared" ca="1" si="3"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B44">
+        <f t="shared" ca="1" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="C44">
+        <f t="shared" ca="1" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ca="1" si="3"/>
+        <v>97</v>
+      </c>
+      <c r="E44">
+        <f t="shared" ca="1" si="3"/>
+        <v>89</v>
+      </c>
+      <c r="F44">
+        <f t="shared" ca="1" si="3"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B45">
+        <f t="shared" ca="1" si="3"/>
+        <v>83</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ca="1" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ca="1" si="3"/>
+        <v>81</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ca="1" si="3"/>
+        <v>92</v>
+      </c>
+      <c r="F45">
+        <f t="shared" ca="1" si="3"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B46">
+        <f t="shared" ca="1" si="3"/>
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ca="1" si="3"/>
+        <v>86</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ca="1" si="3"/>
+        <v>67</v>
+      </c>
+      <c r="E46">
+        <f t="shared" ca="1" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="F46">
+        <f t="shared" ca="1" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B47">
+        <f t="shared" ca="1" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="C47">
+        <f t="shared" ca="1" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ca="1" si="3"/>
+        <v>87</v>
+      </c>
+      <c r="E47">
+        <f t="shared" ca="1" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="F47">
+        <f t="shared" ca="1" si="3"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B48">
+        <f t="shared" ca="1" si="3"/>
+        <v>67</v>
+      </c>
+      <c r="C48">
+        <f t="shared" ca="1" si="3"/>
+        <v>92</v>
+      </c>
+      <c r="D48">
+        <f t="shared" ca="1" si="3"/>
+        <v>99</v>
+      </c>
+      <c r="E48">
+        <f t="shared" ca="1" si="3"/>
+        <v>51</v>
+      </c>
+      <c r="F48">
+        <f t="shared" ca="1" si="3"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B49">
+        <f t="shared" ca="1" si="3"/>
+        <v>66</v>
+      </c>
+      <c r="C49">
+        <f t="shared" ca="1" si="3"/>
+        <v>67</v>
+      </c>
+      <c r="D49">
+        <f t="shared" ca="1" si="3"/>
+        <v>91</v>
+      </c>
+      <c r="E49">
+        <f t="shared" ca="1" si="3"/>
+        <v>69</v>
+      </c>
+      <c r="F49">
+        <f t="shared" ca="1" si="3"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B50">
+        <f t="shared" ca="1" si="3"/>
+        <v>93</v>
+      </c>
+      <c r="C50">
+        <f t="shared" ca="1" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="D50">
+        <f t="shared" ca="1" si="3"/>
+        <v>57</v>
+      </c>
+      <c r="E50">
+        <f t="shared" ca="1" si="3"/>
+        <v>51</v>
+      </c>
+      <c r="F50">
+        <f t="shared" ca="1" si="3"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B51">
+        <f t="shared" ref="B51:F66" ca="1" si="4">RANDBETWEEN(50,100)</f>
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <f t="shared" ca="1" si="4"/>
+        <v>55</v>
+      </c>
+      <c r="D51">
+        <f t="shared" ca="1" si="4"/>
+        <v>83</v>
+      </c>
+      <c r="E51">
+        <f t="shared" ca="1" si="4"/>
+        <v>75</v>
+      </c>
+      <c r="F51">
+        <f t="shared" ca="1" si="4"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B52">
+        <f t="shared" ca="1" si="4"/>
+        <v>68</v>
+      </c>
+      <c r="C52">
+        <f t="shared" ca="1" si="4"/>
+        <v>83</v>
+      </c>
+      <c r="D52">
+        <f t="shared" ca="1" si="4"/>
+        <v>88</v>
+      </c>
+      <c r="E52">
+        <f t="shared" ca="1" si="4"/>
+        <v>79</v>
+      </c>
+      <c r="F52">
+        <f t="shared" ca="1" si="4"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B53">
+        <f t="shared" ca="1" si="4"/>
+        <v>98</v>
+      </c>
+      <c r="C53">
+        <f t="shared" ca="1" si="4"/>
+        <v>88</v>
+      </c>
+      <c r="D53">
+        <f t="shared" ca="1" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="E53">
+        <f t="shared" ca="1" si="4"/>
+        <v>86</v>
+      </c>
+      <c r="F53">
+        <f t="shared" ca="1" si="4"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B54">
+        <f t="shared" ca="1" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="C54">
+        <f t="shared" ca="1" si="4"/>
+        <v>88</v>
+      </c>
+      <c r="D54">
+        <f t="shared" ca="1" si="4"/>
+        <v>59</v>
+      </c>
+      <c r="E54">
+        <f t="shared" ca="1" si="4"/>
+        <v>58</v>
+      </c>
+      <c r="F54">
+        <f t="shared" ca="1" si="4"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B55">
+        <f t="shared" ca="1" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="C55">
+        <f t="shared" ca="1" si="4"/>
+        <v>74</v>
+      </c>
+      <c r="D55">
+        <f t="shared" ca="1" si="4"/>
+        <v>89</v>
+      </c>
+      <c r="E55">
+        <f t="shared" ca="1" si="4"/>
+        <v>53</v>
+      </c>
+      <c r="F55">
+        <f t="shared" ca="1" si="4"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B56">
+        <f t="shared" ca="1" si="4"/>
+        <v>87</v>
+      </c>
+      <c r="C56">
+        <f t="shared" ca="1" si="4"/>
+        <v>54</v>
+      </c>
+      <c r="D56">
+        <f t="shared" ca="1" si="4"/>
+        <v>91</v>
+      </c>
+      <c r="E56">
+        <f t="shared" ca="1" si="4"/>
+        <v>69</v>
+      </c>
+      <c r="F56">
+        <f t="shared" ca="1" si="4"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B57">
+        <f t="shared" ca="1" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="C57">
+        <f t="shared" ca="1" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="D57">
+        <f t="shared" ca="1" si="4"/>
+        <v>77</v>
+      </c>
+      <c r="E57">
+        <f t="shared" ca="1" si="4"/>
+        <v>81</v>
+      </c>
+      <c r="F57">
+        <f t="shared" ca="1" si="4"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B58">
+        <f t="shared" ca="1" si="4"/>
+        <v>58</v>
+      </c>
+      <c r="C58">
+        <f t="shared" ca="1" si="4"/>
+        <v>88</v>
+      </c>
+      <c r="D58">
+        <f t="shared" ca="1" si="4"/>
+        <v>79</v>
+      </c>
+      <c r="E58">
+        <f t="shared" ca="1" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="F58">
+        <f t="shared" ca="1" si="4"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B59">
+        <f t="shared" ca="1" si="4"/>
+        <v>52</v>
+      </c>
+      <c r="C59">
+        <f t="shared" ca="1" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="D59">
+        <f t="shared" ca="1" si="4"/>
+        <v>79</v>
+      </c>
+      <c r="E59">
+        <f t="shared" ca="1" si="4"/>
+        <v>58</v>
+      </c>
+      <c r="F59">
+        <f t="shared" ca="1" si="4"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B60">
+        <f t="shared" ca="1" si="4"/>
+        <v>82</v>
+      </c>
+      <c r="C60">
+        <f t="shared" ca="1" si="4"/>
+        <v>65</v>
+      </c>
+      <c r="D60">
+        <f t="shared" ca="1" si="4"/>
+        <v>72</v>
+      </c>
+      <c r="E60">
+        <f t="shared" ca="1" si="4"/>
+        <v>89</v>
+      </c>
+      <c r="F60">
+        <f t="shared" ca="1" si="4"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B61">
+        <f t="shared" ca="1" si="4"/>
+        <v>71</v>
+      </c>
+      <c r="C61">
+        <f t="shared" ca="1" si="4"/>
+        <v>61</v>
+      </c>
+      <c r="D61">
+        <f t="shared" ca="1" si="4"/>
+        <v>77</v>
+      </c>
+      <c r="E61">
+        <f t="shared" ca="1" si="4"/>
+        <v>98</v>
+      </c>
+      <c r="F61">
+        <f t="shared" ca="1" si="4"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B62">
+        <f t="shared" ca="1" si="4"/>
+        <v>51</v>
+      </c>
+      <c r="C62">
+        <f t="shared" ca="1" si="4"/>
+        <v>57</v>
+      </c>
+      <c r="D62">
+        <f t="shared" ca="1" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="E62">
+        <f t="shared" ca="1" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="F62">
+        <f t="shared" ca="1" si="4"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B63">
+        <f t="shared" ca="1" si="4"/>
+        <v>74</v>
+      </c>
+      <c r="C63">
+        <f t="shared" ca="1" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="D63">
+        <f t="shared" ca="1" si="4"/>
+        <v>91</v>
+      </c>
+      <c r="E63">
+        <f t="shared" ca="1" si="4"/>
+        <v>73</v>
+      </c>
+      <c r="F63">
+        <f t="shared" ca="1" si="4"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B64">
+        <f t="shared" ca="1" si="4"/>
+        <v>82</v>
+      </c>
+      <c r="C64">
+        <f t="shared" ca="1" si="4"/>
+        <v>99</v>
+      </c>
+      <c r="D64">
+        <f t="shared" ca="1" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="E64">
+        <f t="shared" ca="1" si="4"/>
+        <v>86</v>
+      </c>
+      <c r="F64">
+        <f t="shared" ca="1" si="4"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B65">
+        <f t="shared" ca="1" si="4"/>
+        <v>57</v>
+      </c>
+      <c r="C65">
+        <f t="shared" ca="1" si="4"/>
+        <v>96</v>
+      </c>
+      <c r="D65">
+        <f t="shared" ca="1" si="4"/>
+        <v>71</v>
+      </c>
+      <c r="E65">
+        <f t="shared" ca="1" si="4"/>
+        <v>89</v>
+      </c>
+      <c r="F65">
+        <f t="shared" ca="1" si="4"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B66">
+        <f t="shared" ca="1" si="4"/>
+        <v>52</v>
+      </c>
+      <c r="C66">
+        <f t="shared" ca="1" si="4"/>
+        <v>52</v>
+      </c>
+      <c r="D66">
+        <f t="shared" ca="1" si="4"/>
+        <v>51</v>
+      </c>
+      <c r="E66">
+        <f t="shared" ca="1" si="4"/>
+        <v>95</v>
+      </c>
+      <c r="F66">
+        <f t="shared" ca="1" si="4"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B67">
+        <f t="shared" ref="B67:F82" ca="1" si="5">RANDBETWEEN(50,100)</f>
+        <v>79</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ca="1" si="5"/>
+        <v>89</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ca="1" si="5"/>
+        <v>99</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ca="1" si="5"/>
+        <v>71</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ca="1" si="5"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B68">
+        <f t="shared" ca="1" si="5"/>
+        <v>67</v>
+      </c>
+      <c r="C68">
+        <f t="shared" ca="1" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="D68">
+        <f t="shared" ca="1" si="5"/>
+        <v>52</v>
+      </c>
+      <c r="E68">
+        <f t="shared" ca="1" si="5"/>
+        <v>67</v>
+      </c>
+      <c r="F68">
+        <f t="shared" ca="1" si="5"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69">
+        <f t="shared" ca="1" si="5"/>
+        <v>65</v>
+      </c>
+      <c r="C69">
+        <f t="shared" ca="1" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="D69">
+        <f t="shared" ca="1" si="5"/>
+        <v>65</v>
+      </c>
+      <c r="E69">
+        <f t="shared" ca="1" si="5"/>
+        <v>66</v>
+      </c>
+      <c r="F69">
+        <f t="shared" ca="1" si="5"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B70">
+        <f t="shared" ca="1" si="5"/>
+        <v>53</v>
+      </c>
+      <c r="C70">
+        <f t="shared" ca="1" si="5"/>
+        <v>55</v>
+      </c>
+      <c r="D70">
+        <f t="shared" ca="1" si="5"/>
+        <v>51</v>
+      </c>
+      <c r="E70">
+        <f t="shared" ca="1" si="5"/>
+        <v>86</v>
+      </c>
+      <c r="F70">
+        <f t="shared" ca="1" si="5"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B71">
+        <f t="shared" ca="1" si="5"/>
+        <v>67</v>
+      </c>
+      <c r="C71">
+        <f t="shared" ca="1" si="5"/>
+        <v>74</v>
+      </c>
+      <c r="D71">
+        <f t="shared" ca="1" si="5"/>
+        <v>69</v>
+      </c>
+      <c r="E71">
+        <f t="shared" ca="1" si="5"/>
+        <v>68</v>
+      </c>
+      <c r="F71">
+        <f t="shared" ca="1" si="5"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B72">
+        <f t="shared" ca="1" si="5"/>
+        <v>52</v>
+      </c>
+      <c r="C72">
+        <f t="shared" ca="1" si="5"/>
+        <v>91</v>
+      </c>
+      <c r="D72">
+        <f t="shared" ca="1" si="5"/>
+        <v>91</v>
+      </c>
+      <c r="E72">
+        <f t="shared" ca="1" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="F72">
+        <f t="shared" ca="1" si="5"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B73">
+        <f t="shared" ca="1" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="C73">
+        <f t="shared" ca="1" si="5"/>
+        <v>63</v>
+      </c>
+      <c r="D73">
+        <f t="shared" ca="1" si="5"/>
+        <v>74</v>
+      </c>
+      <c r="E73">
+        <f t="shared" ca="1" si="5"/>
+        <v>93</v>
+      </c>
+      <c r="F73">
+        <f t="shared" ca="1" si="5"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B74">
+        <f t="shared" ca="1" si="5"/>
+        <v>62</v>
+      </c>
+      <c r="C74">
+        <f t="shared" ca="1" si="5"/>
+        <v>97</v>
+      </c>
+      <c r="D74">
+        <f t="shared" ca="1" si="5"/>
+        <v>98</v>
+      </c>
+      <c r="E74">
+        <f t="shared" ca="1" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="F74">
+        <f t="shared" ca="1" si="5"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B75">
+        <f t="shared" ca="1" si="5"/>
+        <v>61</v>
+      </c>
+      <c r="C75">
+        <f t="shared" ca="1" si="5"/>
+        <v>93</v>
+      </c>
+      <c r="D75">
+        <f t="shared" ca="1" si="5"/>
+        <v>52</v>
+      </c>
+      <c r="E75">
+        <f t="shared" ca="1" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="F75">
+        <f t="shared" ca="1" si="5"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B76">
+        <f t="shared" ca="1" si="5"/>
+        <v>92</v>
+      </c>
+      <c r="C76">
+        <f t="shared" ca="1" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="D76">
+        <f t="shared" ca="1" si="5"/>
+        <v>68</v>
+      </c>
+      <c r="E76">
+        <f t="shared" ca="1" si="5"/>
+        <v>87</v>
+      </c>
+      <c r="F76">
+        <f t="shared" ca="1" si="5"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B77">
+        <f t="shared" ca="1" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="C77">
+        <f t="shared" ca="1" si="5"/>
+        <v>91</v>
+      </c>
+      <c r="D77">
+        <f t="shared" ca="1" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="E77">
+        <f t="shared" ca="1" si="5"/>
+        <v>53</v>
+      </c>
+      <c r="F77">
+        <f t="shared" ca="1" si="5"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B78">
+        <f t="shared" ca="1" si="5"/>
+        <v>78</v>
+      </c>
+      <c r="C78">
+        <f t="shared" ca="1" si="5"/>
+        <v>52</v>
+      </c>
+      <c r="D78">
+        <f t="shared" ca="1" si="5"/>
+        <v>78</v>
+      </c>
+      <c r="E78">
+        <f t="shared" ca="1" si="5"/>
+        <v>61</v>
+      </c>
+      <c r="F78">
+        <f t="shared" ca="1" si="5"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B79">
+        <f t="shared" ca="1" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="C79">
+        <f t="shared" ca="1" si="5"/>
+        <v>85</v>
+      </c>
+      <c r="D79">
+        <f t="shared" ca="1" si="5"/>
+        <v>54</v>
+      </c>
+      <c r="E79">
+        <f t="shared" ca="1" si="5"/>
+        <v>87</v>
+      </c>
+      <c r="F79">
+        <f t="shared" ca="1" si="5"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B80">
+        <f t="shared" ca="1" si="5"/>
+        <v>91</v>
+      </c>
+      <c r="C80">
+        <f t="shared" ca="1" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="D80">
+        <f t="shared" ca="1" si="5"/>
+        <v>79</v>
+      </c>
+      <c r="E80">
+        <f t="shared" ca="1" si="5"/>
+        <v>77</v>
+      </c>
+      <c r="F80">
+        <f t="shared" ca="1" si="5"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B81">
+        <f t="shared" ca="1" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="C81">
+        <f t="shared" ca="1" si="5"/>
+        <v>99</v>
+      </c>
+      <c r="D81">
+        <f t="shared" ca="1" si="5"/>
+        <v>56</v>
+      </c>
+      <c r="E81">
+        <f t="shared" ca="1" si="5"/>
+        <v>62</v>
+      </c>
+      <c r="F81">
+        <f t="shared" ca="1" si="5"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82">
+        <f t="shared" ca="1" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="C82">
+        <f t="shared" ca="1" si="5"/>
+        <v>85</v>
+      </c>
+      <c r="D82">
+        <f t="shared" ca="1" si="5"/>
+        <v>73</v>
+      </c>
+      <c r="E82">
+        <f t="shared" ca="1" si="5"/>
+        <v>51</v>
+      </c>
+      <c r="F82">
+        <f t="shared" ca="1" si="5"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B83">
+        <f t="shared" ref="B83:F98" ca="1" si="6">RANDBETWEEN(50,100)</f>
+        <v>90</v>
+      </c>
+      <c r="C83">
+        <f t="shared" ca="1" si="6"/>
+        <v>70</v>
+      </c>
+      <c r="D83">
+        <f t="shared" ca="1" si="6"/>
+        <v>79</v>
+      </c>
+      <c r="E83">
+        <f t="shared" ca="1" si="6"/>
+        <v>68</v>
+      </c>
+      <c r="F83">
+        <f t="shared" ca="1" si="6"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B84">
+        <f t="shared" ca="1" si="6"/>
+        <v>88</v>
+      </c>
+      <c r="C84">
+        <f t="shared" ca="1" si="6"/>
+        <v>54</v>
+      </c>
+      <c r="D84">
+        <f t="shared" ca="1" si="6"/>
+        <v>69</v>
+      </c>
+      <c r="E84">
+        <f t="shared" ca="1" si="6"/>
+        <v>91</v>
+      </c>
+      <c r="F84">
+        <f t="shared" ca="1" si="6"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B85">
+        <f t="shared" ca="1" si="6"/>
+        <v>56</v>
+      </c>
+      <c r="C85">
+        <f t="shared" ca="1" si="6"/>
+        <v>95</v>
+      </c>
+      <c r="D85">
+        <f t="shared" ca="1" si="6"/>
+        <v>99</v>
+      </c>
+      <c r="E85">
+        <f t="shared" ca="1" si="6"/>
+        <v>78</v>
+      </c>
+      <c r="F85">
+        <f t="shared" ca="1" si="6"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B86">
+        <f t="shared" ca="1" si="6"/>
+        <v>81</v>
+      </c>
+      <c r="C86">
+        <f t="shared" ca="1" si="6"/>
+        <v>63</v>
+      </c>
+      <c r="D86">
+        <f t="shared" ca="1" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="E86">
+        <f t="shared" ca="1" si="6"/>
+        <v>95</v>
+      </c>
+      <c r="F86">
+        <f t="shared" ca="1" si="6"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B87">
+        <f t="shared" ca="1" si="6"/>
+        <v>97</v>
+      </c>
+      <c r="C87">
+        <f t="shared" ca="1" si="6"/>
+        <v>82</v>
+      </c>
+      <c r="D87">
+        <f t="shared" ca="1" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="E87">
+        <f t="shared" ca="1" si="6"/>
+        <v>63</v>
+      </c>
+      <c r="F87">
+        <f t="shared" ca="1" si="6"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B88">
+        <f t="shared" ca="1" si="6"/>
+        <v>64</v>
+      </c>
+      <c r="C88">
+        <f t="shared" ca="1" si="6"/>
+        <v>59</v>
+      </c>
+      <c r="D88">
+        <f t="shared" ca="1" si="6"/>
+        <v>83</v>
+      </c>
+      <c r="E88">
+        <f t="shared" ca="1" si="6"/>
+        <v>79</v>
+      </c>
+      <c r="F88">
+        <f t="shared" ca="1" si="6"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B89">
+        <f t="shared" ca="1" si="6"/>
+        <v>63</v>
+      </c>
+      <c r="C89">
+        <f t="shared" ca="1" si="6"/>
+        <v>56</v>
+      </c>
+      <c r="D89">
+        <f t="shared" ca="1" si="6"/>
+        <v>77</v>
+      </c>
+      <c r="E89">
+        <f t="shared" ca="1" si="6"/>
+        <v>92</v>
+      </c>
+      <c r="F89">
+        <f t="shared" ca="1" si="6"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B90">
+        <f t="shared" ca="1" si="6"/>
+        <v>55</v>
+      </c>
+      <c r="C90">
+        <f t="shared" ca="1" si="6"/>
+        <v>61</v>
+      </c>
+      <c r="D90">
+        <f t="shared" ca="1" si="6"/>
+        <v>82</v>
+      </c>
+      <c r="E90">
+        <f t="shared" ca="1" si="6"/>
+        <v>93</v>
+      </c>
+      <c r="F90">
+        <f t="shared" ca="1" si="6"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B91">
+        <f t="shared" ca="1" si="6"/>
+        <v>55</v>
+      </c>
+      <c r="C91">
+        <f t="shared" ca="1" si="6"/>
+        <v>88</v>
+      </c>
+      <c r="D91">
+        <f t="shared" ca="1" si="6"/>
+        <v>96</v>
+      </c>
+      <c r="E91">
+        <f t="shared" ca="1" si="6"/>
+        <v>73</v>
+      </c>
+      <c r="F91">
+        <f t="shared" ca="1" si="6"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B92">
+        <f t="shared" ca="1" si="6"/>
+        <v>98</v>
+      </c>
+      <c r="C92">
+        <f t="shared" ca="1" si="6"/>
+        <v>94</v>
+      </c>
+      <c r="D92">
+        <f t="shared" ca="1" si="6"/>
+        <v>72</v>
+      </c>
+      <c r="E92">
+        <f t="shared" ca="1" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="F92">
+        <f t="shared" ca="1" si="6"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B93">
+        <f t="shared" ca="1" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="C93">
+        <f t="shared" ca="1" si="6"/>
+        <v>67</v>
+      </c>
+      <c r="D93">
+        <f t="shared" ca="1" si="6"/>
+        <v>65</v>
+      </c>
+      <c r="E93">
+        <f t="shared" ca="1" si="6"/>
+        <v>91</v>
+      </c>
+      <c r="F93">
+        <f t="shared" ca="1" si="6"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B94">
+        <f t="shared" ca="1" si="6"/>
+        <v>61</v>
+      </c>
+      <c r="C94">
+        <f t="shared" ca="1" si="6"/>
+        <v>92</v>
+      </c>
+      <c r="D94">
+        <f t="shared" ca="1" si="6"/>
+        <v>89</v>
+      </c>
+      <c r="E94">
+        <f t="shared" ca="1" si="6"/>
+        <v>82</v>
+      </c>
+      <c r="F94">
+        <f t="shared" ca="1" si="6"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B95">
+        <f t="shared" ca="1" si="6"/>
+        <v>72</v>
+      </c>
+      <c r="C95">
+        <f t="shared" ca="1" si="6"/>
+        <v>68</v>
+      </c>
+      <c r="D95">
+        <f t="shared" ca="1" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="E95">
+        <f t="shared" ca="1" si="6"/>
+        <v>88</v>
+      </c>
+      <c r="F95">
+        <f t="shared" ca="1" si="6"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B96">
+        <f t="shared" ca="1" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="C96">
+        <f t="shared" ca="1" si="6"/>
+        <v>51</v>
+      </c>
+      <c r="D96">
+        <f t="shared" ca="1" si="6"/>
+        <v>86</v>
+      </c>
+      <c r="E96">
+        <f t="shared" ca="1" si="6"/>
+        <v>64</v>
+      </c>
+      <c r="F96">
+        <f t="shared" ca="1" si="6"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B97">
+        <f t="shared" ca="1" si="6"/>
+        <v>88</v>
+      </c>
+      <c r="C97">
+        <f t="shared" ca="1" si="6"/>
+        <v>56</v>
+      </c>
+      <c r="D97">
+        <f t="shared" ca="1" si="6"/>
+        <v>69</v>
+      </c>
+      <c r="E97">
+        <f t="shared" ca="1" si="6"/>
+        <v>53</v>
+      </c>
+      <c r="F97">
+        <f t="shared" ca="1" si="6"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B98">
+        <f t="shared" ca="1" si="6"/>
+        <v>98</v>
+      </c>
+      <c r="C98">
+        <f t="shared" ca="1" si="6"/>
+        <v>98</v>
+      </c>
+      <c r="D98">
+        <f t="shared" ca="1" si="6"/>
+        <v>52</v>
+      </c>
+      <c r="E98">
+        <f t="shared" ca="1" si="6"/>
+        <v>65</v>
+      </c>
+      <c r="F98">
+        <f t="shared" ca="1" si="6"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B99">
+        <f t="shared" ref="B99:F101" ca="1" si="7">RANDBETWEEN(50,100)</f>
+        <v>99</v>
+      </c>
+      <c r="C99">
+        <f t="shared" ca="1" si="7"/>
+        <v>91</v>
+      </c>
+      <c r="D99">
+        <f t="shared" ca="1" si="7"/>
+        <v>55</v>
+      </c>
+      <c r="E99">
+        <f t="shared" ca="1" si="7"/>
+        <v>88</v>
+      </c>
+      <c r="F99">
+        <f t="shared" ca="1" si="7"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B100">
+        <f t="shared" ca="1" si="7"/>
+        <v>64</v>
+      </c>
+      <c r="C100">
+        <f t="shared" ca="1" si="7"/>
+        <v>96</v>
+      </c>
+      <c r="D100">
+        <f t="shared" ca="1" si="7"/>
+        <v>65</v>
+      </c>
+      <c r="E100">
+        <f t="shared" ca="1" si="7"/>
+        <v>58</v>
+      </c>
+      <c r="F100">
+        <f t="shared" ca="1" si="7"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B101">
+        <f t="shared" ca="1" si="7"/>
+        <v>86</v>
+      </c>
+      <c r="C101">
+        <f t="shared" ca="1" si="7"/>
+        <v>69</v>
+      </c>
+      <c r="D101">
+        <f t="shared" ca="1" si="7"/>
+        <v>81</v>
+      </c>
+      <c r="E101">
+        <f t="shared" ca="1" si="7"/>
+        <v>98</v>
+      </c>
+      <c r="F101">
+        <f t="shared" ca="1" si="7"/>
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>403</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>423</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>399</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>419</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>391</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>420</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>371</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>421</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>367</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>363</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>355</v>
-      </c>
-      <c r="B7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>343</v>
-      </c>
-      <c r="B8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>335</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>331</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>327</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>307</v>
-      </c>
-      <c r="B12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>303</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>279</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>267</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>247</v>
-      </c>
-      <c r="B16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>243</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>231</v>
-      </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>227</v>
-      </c>
-      <c r="B19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>219</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>207</v>
-      </c>
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>199</v>
-      </c>
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>195</v>
-      </c>
-      <c r="B23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>191</v>
-      </c>
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>187</v>
-      </c>
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>175</v>
-      </c>
-      <c r="B26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>163</v>
-      </c>
-      <c r="B27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>139</v>
-      </c>
-      <c r="B28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>131</v>
-      </c>
-      <c r="B29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>123</v>
-      </c>
-      <c r="B30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>107</v>
-      </c>
-      <c r="B31" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>103</v>
-      </c>
-      <c r="B32" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>99</v>
-      </c>
-      <c r="B33" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>87</v>
-      </c>
-      <c r="B34" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>83</v>
-      </c>
-      <c r="B35" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>79</v>
-      </c>
-      <c r="B36" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>67</v>
-      </c>
-      <c r="B37" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>37</v>
-      </c>
-      <c r="B40" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>33</v>
-      </c>
-      <c r="B41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>29</v>
-      </c>
-      <c r="B42" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>17</v>
-      </c>
-      <c r="B43" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44" t="s">
-        <v>10</v>
+        <v>424</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A1:A5">
+    <sortCondition ref="A1:A5"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/참고자료/학생정보테이블.xlsx
+++ b/참고자료/학생정보테이블.xlsx
@@ -15,7 +15,7 @@
     <sheet name="학생정보" sheetId="1" r:id="rId1"/>
     <sheet name="학생정보 (2)" sheetId="2" r:id="rId2"/>
     <sheet name="학생성적정보" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="학과정보" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="446">
   <si>
     <t>국어국문</t>
   </si>
@@ -1358,6 +1358,89 @@
   </si>
   <si>
     <t>D005</t>
+  </si>
+  <si>
+    <t>학과명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학과코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>연락처</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조교</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학과장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>위치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍길동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이몽룡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>성춘향</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>임꺽정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장영실</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조용필</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>남진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>태진아</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나훈아</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김호중</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>본관 1-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>본관 1-2</t>
+  </si>
+  <si>
+    <t>본관 3-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>본관 3-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT관 1호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1698,10 +1781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1712,9 +1795,10 @@
     <col min="4" max="4" width="48.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>409</v>
       </c>
@@ -1733,11 +1817,11 @@
       <c r="F1" t="s">
         <v>410</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>404</v>
       </c>
@@ -1752,17 +1836,17 @@
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E33" ca="1" si="0">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
       </c>
-      <c r="G2" t="str">
-        <f>VLOOKUP(F2,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H2" t="str">
+        <f>VLOOKUP(F2,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>400</v>
       </c>
@@ -1777,17 +1861,17 @@
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" t="str">
-        <f>VLOOKUP(F3,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H3" t="str">
+        <f>VLOOKUP(F3,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>396</v>
       </c>
@@ -1802,17 +1886,17 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
       </c>
-      <c r="G4" t="str">
-        <f>VLOOKUP(F4,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H4" t="str">
+        <f>VLOOKUP(F4,학과정보!$A$2:$B$6,2)</f>
         <v>D001</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>392</v>
       </c>
@@ -1827,17 +1911,17 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
       </c>
-      <c r="G5" t="str">
-        <f>VLOOKUP(F5,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H5" t="str">
+        <f>VLOOKUP(F5,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>388</v>
       </c>
@@ -1852,17 +1936,17 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" t="s">
         <v>48</v>
       </c>
-      <c r="G6" t="str">
-        <f>VLOOKUP(F6,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H6" t="str">
+        <f>VLOOKUP(F6,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>384</v>
       </c>
@@ -1877,17 +1961,17 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
       </c>
-      <c r="G7" t="str">
-        <f>VLOOKUP(F7,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H7" t="str">
+        <f>VLOOKUP(F7,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>380</v>
       </c>
@@ -1902,17 +1986,17 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F8" t="s">
         <v>5</v>
       </c>
-      <c r="G8" t="str">
-        <f>VLOOKUP(F8,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H8" t="str">
+        <f>VLOOKUP(F8,학과정보!$A$2:$B$6,2)</f>
         <v>D001</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>376</v>
       </c>
@@ -1927,17 +2011,17 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F9" t="s">
         <v>48</v>
       </c>
-      <c r="G9" t="str">
-        <f>VLOOKUP(F9,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H9" t="str">
+        <f>VLOOKUP(F9,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>372</v>
       </c>
@@ -1952,17 +2036,17 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
       </c>
-      <c r="G10" t="str">
-        <f>VLOOKUP(F10,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H10" t="str">
+        <f>VLOOKUP(F10,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>368</v>
       </c>
@@ -1977,17 +2061,17 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
       </c>
-      <c r="G11" t="str">
-        <f>VLOOKUP(F11,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H11" t="str">
+        <f>VLOOKUP(F11,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>364</v>
       </c>
@@ -2002,17 +2086,17 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
       </c>
-      <c r="G12" t="str">
-        <f>VLOOKUP(F12,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H12" t="str">
+        <f>VLOOKUP(F12,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>360</v>
       </c>
@@ -2027,17 +2111,17 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F13" t="s">
         <v>48</v>
       </c>
-      <c r="G13" t="str">
-        <f>VLOOKUP(F13,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H13" t="str">
+        <f>VLOOKUP(F13,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>356</v>
       </c>
@@ -2052,17 +2136,17 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14" t="s">
         <v>39</v>
       </c>
-      <c r="G14" t="str">
-        <f>VLOOKUP(F14,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H14" t="str">
+        <f>VLOOKUP(F14,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>352</v>
       </c>
@@ -2077,17 +2161,17 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
       </c>
-      <c r="G15" t="str">
-        <f>VLOOKUP(F15,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H15" t="str">
+        <f>VLOOKUP(F15,학과정보!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>348</v>
       </c>
@@ -2102,17 +2186,17 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F16" t="s">
         <v>48</v>
       </c>
-      <c r="G16" t="str">
-        <f>VLOOKUP(F16,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H16" t="str">
+        <f>VLOOKUP(F16,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>344</v>
       </c>
@@ -2132,12 +2216,12 @@
       <c r="F17" t="s">
         <v>39</v>
       </c>
-      <c r="G17" t="str">
-        <f>VLOOKUP(F17,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H17" t="str">
+        <f>VLOOKUP(F17,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>340</v>
       </c>
@@ -2152,17 +2236,17 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18" t="s">
         <v>48</v>
       </c>
-      <c r="G18" t="str">
-        <f>VLOOKUP(F18,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H18" t="str">
+        <f>VLOOKUP(F18,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>336</v>
       </c>
@@ -2177,17 +2261,17 @@
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
       </c>
-      <c r="G19" t="str">
-        <f>VLOOKUP(F19,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H19" t="str">
+        <f>VLOOKUP(F19,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>332</v>
       </c>
@@ -2202,17 +2286,17 @@
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
       </c>
-      <c r="G20" t="str">
-        <f>VLOOKUP(F20,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H20" t="str">
+        <f>VLOOKUP(F20,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>328</v>
       </c>
@@ -2232,12 +2316,12 @@
       <c r="F21" t="s">
         <v>10</v>
       </c>
-      <c r="G21" t="str">
-        <f>VLOOKUP(F21,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H21" t="str">
+        <f>VLOOKUP(F21,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>324</v>
       </c>
@@ -2257,12 +2341,12 @@
       <c r="F22" t="s">
         <v>48</v>
       </c>
-      <c r="G22" t="str">
-        <f>VLOOKUP(F22,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H22" t="str">
+        <f>VLOOKUP(F22,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>320</v>
       </c>
@@ -2277,17 +2361,17 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F23" t="s">
         <v>5</v>
       </c>
-      <c r="G23" t="str">
-        <f>VLOOKUP(F23,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H23" t="str">
+        <f>VLOOKUP(F23,학과정보!$A$2:$B$6,2)</f>
         <v>D001</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>316</v>
       </c>
@@ -2307,12 +2391,12 @@
       <c r="F24" t="s">
         <v>48</v>
       </c>
-      <c r="G24" t="str">
-        <f>VLOOKUP(F24,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H24" t="str">
+        <f>VLOOKUP(F24,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>312</v>
       </c>
@@ -2327,17 +2411,17 @@
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25" t="s">
         <v>48</v>
       </c>
-      <c r="G25" t="str">
-        <f>VLOOKUP(F25,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H25" t="str">
+        <f>VLOOKUP(F25,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>308</v>
       </c>
@@ -2352,17 +2436,17 @@
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F26" t="s">
         <v>39</v>
       </c>
-      <c r="G26" t="str">
-        <f>VLOOKUP(F26,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H26" t="str">
+        <f>VLOOKUP(F26,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>304</v>
       </c>
@@ -2377,17 +2461,17 @@
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F27" t="s">
         <v>39</v>
       </c>
-      <c r="G27" t="str">
-        <f>VLOOKUP(F27,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H27" t="str">
+        <f>VLOOKUP(F27,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>300</v>
       </c>
@@ -2407,12 +2491,12 @@
       <c r="F28" t="s">
         <v>0</v>
       </c>
-      <c r="G28" t="str">
-        <f>VLOOKUP(F28,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H28" t="str">
+        <f>VLOOKUP(F28,학과정보!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>296</v>
       </c>
@@ -2432,12 +2516,12 @@
       <c r="F29" t="s">
         <v>5</v>
       </c>
-      <c r="G29" t="str">
-        <f>VLOOKUP(F29,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H29" t="str">
+        <f>VLOOKUP(F29,학과정보!$A$2:$B$6,2)</f>
         <v>D001</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>292</v>
       </c>
@@ -2452,17 +2536,17 @@
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30" t="s">
         <v>5</v>
       </c>
-      <c r="G30" t="str">
-        <f>VLOOKUP(F30,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H30" t="str">
+        <f>VLOOKUP(F30,학과정보!$A$2:$B$6,2)</f>
         <v>D001</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>288</v>
       </c>
@@ -2477,17 +2561,17 @@
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31" t="s">
         <v>5</v>
       </c>
-      <c r="G31" t="str">
-        <f>VLOOKUP(F31,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H31" t="str">
+        <f>VLOOKUP(F31,학과정보!$A$2:$B$6,2)</f>
         <v>D001</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>284</v>
       </c>
@@ -2507,12 +2591,12 @@
       <c r="F32" t="s">
         <v>0</v>
       </c>
-      <c r="G32" t="str">
-        <f>VLOOKUP(F32,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H32" t="str">
+        <f>VLOOKUP(F32,학과정보!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>280</v>
       </c>
@@ -2527,17 +2611,17 @@
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F33" t="s">
         <v>10</v>
       </c>
-      <c r="G33" t="str">
-        <f>VLOOKUP(F33,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H33" t="str">
+        <f>VLOOKUP(F33,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>276</v>
       </c>
@@ -2552,17 +2636,17 @@
       </c>
       <c r="E34">
         <f t="shared" ref="E34:E65" ca="1" si="1">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34" t="s">
         <v>0</v>
       </c>
-      <c r="G34" t="str">
-        <f>VLOOKUP(F34,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H34" t="str">
+        <f>VLOOKUP(F34,학과정보!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>272</v>
       </c>
@@ -2582,12 +2666,12 @@
       <c r="F35" t="s">
         <v>48</v>
       </c>
-      <c r="G35" t="str">
-        <f>VLOOKUP(F35,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H35" t="str">
+        <f>VLOOKUP(F35,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>268</v>
       </c>
@@ -2607,12 +2691,12 @@
       <c r="F36" t="s">
         <v>10</v>
       </c>
-      <c r="G36" t="str">
-        <f>VLOOKUP(F36,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H36" t="str">
+        <f>VLOOKUP(F36,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>264</v>
       </c>
@@ -2627,17 +2711,17 @@
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F37" t="s">
         <v>0</v>
       </c>
-      <c r="G37" t="str">
-        <f>VLOOKUP(F37,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H37" t="str">
+        <f>VLOOKUP(F37,학과정보!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>260</v>
       </c>
@@ -2652,17 +2736,17 @@
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F38" t="s">
         <v>5</v>
       </c>
-      <c r="G38" t="str">
-        <f>VLOOKUP(F38,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H38" t="str">
+        <f>VLOOKUP(F38,학과정보!$A$2:$B$6,2)</f>
         <v>D001</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>256</v>
       </c>
@@ -2682,12 +2766,12 @@
       <c r="F39" t="s">
         <v>0</v>
       </c>
-      <c r="G39" t="str">
-        <f>VLOOKUP(F39,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H39" t="str">
+        <f>VLOOKUP(F39,학과정보!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>252</v>
       </c>
@@ -2702,17 +2786,17 @@
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F40" t="s">
         <v>48</v>
       </c>
-      <c r="G40" t="str">
-        <f>VLOOKUP(F40,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H40" t="str">
+        <f>VLOOKUP(F40,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>248</v>
       </c>
@@ -2732,12 +2816,12 @@
       <c r="F41" t="s">
         <v>39</v>
       </c>
-      <c r="G41" t="str">
-        <f>VLOOKUP(F41,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H41" t="str">
+        <f>VLOOKUP(F41,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>244</v>
       </c>
@@ -2757,12 +2841,12 @@
       <c r="F42" t="s">
         <v>10</v>
       </c>
-      <c r="G42" t="str">
-        <f>VLOOKUP(F42,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H42" t="str">
+        <f>VLOOKUP(F42,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>240</v>
       </c>
@@ -2782,12 +2866,12 @@
       <c r="F43" t="s">
         <v>0</v>
       </c>
-      <c r="G43" t="str">
-        <f>VLOOKUP(F43,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H43" t="str">
+        <f>VLOOKUP(F43,학과정보!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>236</v>
       </c>
@@ -2807,12 +2891,12 @@
       <c r="F44" t="s">
         <v>0</v>
       </c>
-      <c r="G44" t="str">
-        <f>VLOOKUP(F44,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H44" t="str">
+        <f>VLOOKUP(F44,학과정보!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>232</v>
       </c>
@@ -2827,17 +2911,17 @@
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
       </c>
-      <c r="G45" t="str">
-        <f>VLOOKUP(F45,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H45" t="str">
+        <f>VLOOKUP(F45,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>228</v>
       </c>
@@ -2852,17 +2936,17 @@
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F46" t="s">
         <v>39</v>
       </c>
-      <c r="G46" t="str">
-        <f>VLOOKUP(F46,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H46" t="str">
+        <f>VLOOKUP(F46,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>224</v>
       </c>
@@ -2877,17 +2961,17 @@
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F47" t="s">
         <v>5</v>
       </c>
-      <c r="G47" t="str">
-        <f>VLOOKUP(F47,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H47" t="str">
+        <f>VLOOKUP(F47,학과정보!$A$2:$B$6,2)</f>
         <v>D001</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>220</v>
       </c>
@@ -2902,17 +2986,17 @@
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F48" t="s">
         <v>39</v>
       </c>
-      <c r="G48" t="str">
-        <f>VLOOKUP(F48,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H48" t="str">
+        <f>VLOOKUP(F48,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>216</v>
       </c>
@@ -2927,17 +3011,17 @@
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F49" t="s">
         <v>5</v>
       </c>
-      <c r="G49" t="str">
-        <f>VLOOKUP(F49,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H49" t="str">
+        <f>VLOOKUP(F49,학과정보!$A$2:$B$6,2)</f>
         <v>D001</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>212</v>
       </c>
@@ -2952,17 +3036,17 @@
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F50" t="s">
         <v>0</v>
       </c>
-      <c r="G50" t="str">
-        <f>VLOOKUP(F50,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H50" t="str">
+        <f>VLOOKUP(F50,학과정보!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>208</v>
       </c>
@@ -2977,17 +3061,17 @@
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F51" t="s">
         <v>10</v>
       </c>
-      <c r="G51" t="str">
-        <f>VLOOKUP(F51,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H51" t="str">
+        <f>VLOOKUP(F51,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>204</v>
       </c>
@@ -3002,17 +3086,17 @@
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F52" t="s">
         <v>48</v>
       </c>
-      <c r="G52" t="str">
-        <f>VLOOKUP(F52,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H52" t="str">
+        <f>VLOOKUP(F52,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>200</v>
       </c>
@@ -3027,17 +3111,17 @@
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F53" t="s">
         <v>10</v>
       </c>
-      <c r="G53" t="str">
-        <f>VLOOKUP(F53,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H53" t="str">
+        <f>VLOOKUP(F53,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>196</v>
       </c>
@@ -3052,17 +3136,17 @@
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F54" t="s">
         <v>39</v>
       </c>
-      <c r="G54" t="str">
-        <f>VLOOKUP(F54,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H54" t="str">
+        <f>VLOOKUP(F54,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>192</v>
       </c>
@@ -3082,12 +3166,12 @@
       <c r="F55" t="s">
         <v>10</v>
       </c>
-      <c r="G55" t="str">
-        <f>VLOOKUP(F55,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H55" t="str">
+        <f>VLOOKUP(F55,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>188</v>
       </c>
@@ -3107,12 +3191,12 @@
       <c r="F56" t="s">
         <v>10</v>
       </c>
-      <c r="G56" t="str">
-        <f>VLOOKUP(F56,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H56" t="str">
+        <f>VLOOKUP(F56,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>184</v>
       </c>
@@ -3127,17 +3211,17 @@
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F57" t="s">
         <v>48</v>
       </c>
-      <c r="G57" t="str">
-        <f>VLOOKUP(F57,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H57" t="str">
+        <f>VLOOKUP(F57,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>180</v>
       </c>
@@ -3152,17 +3236,17 @@
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F58" t="s">
         <v>48</v>
       </c>
-      <c r="G58" t="str">
-        <f>VLOOKUP(F58,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H58" t="str">
+        <f>VLOOKUP(F58,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>176</v>
       </c>
@@ -3182,12 +3266,12 @@
       <c r="F59" t="s">
         <v>39</v>
       </c>
-      <c r="G59" t="str">
-        <f>VLOOKUP(F59,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H59" t="str">
+        <f>VLOOKUP(F59,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>172</v>
       </c>
@@ -3207,12 +3291,12 @@
       <c r="F60" t="s">
         <v>5</v>
       </c>
-      <c r="G60" t="str">
-        <f>VLOOKUP(F60,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H60" t="str">
+        <f>VLOOKUP(F60,학과정보!$A$2:$B$6,2)</f>
         <v>D001</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>168</v>
       </c>
@@ -3227,17 +3311,17 @@
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F61" t="s">
         <v>0</v>
       </c>
-      <c r="G61" t="str">
-        <f>VLOOKUP(F61,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H61" t="str">
+        <f>VLOOKUP(F61,학과정보!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>164</v>
       </c>
@@ -3252,17 +3336,17 @@
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F62" t="s">
         <v>39</v>
       </c>
-      <c r="G62" t="str">
-        <f>VLOOKUP(F62,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H62" t="str">
+        <f>VLOOKUP(F62,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>160</v>
       </c>
@@ -3277,17 +3361,17 @@
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F63" t="s">
         <v>5</v>
       </c>
-      <c r="G63" t="str">
-        <f>VLOOKUP(F63,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H63" t="str">
+        <f>VLOOKUP(F63,학과정보!$A$2:$B$6,2)</f>
         <v>D001</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>156</v>
       </c>
@@ -3302,17 +3386,17 @@
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F64" t="s">
         <v>0</v>
       </c>
-      <c r="G64" t="str">
-        <f>VLOOKUP(F64,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H64" t="str">
+        <f>VLOOKUP(F64,학과정보!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>152</v>
       </c>
@@ -3332,12 +3416,12 @@
       <c r="F65" t="s">
         <v>48</v>
       </c>
-      <c r="G65" t="str">
-        <f>VLOOKUP(F65,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H65" t="str">
+        <f>VLOOKUP(F65,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>148</v>
       </c>
@@ -3357,12 +3441,12 @@
       <c r="F66" t="s">
         <v>5</v>
       </c>
-      <c r="G66" t="str">
-        <f>VLOOKUP(F66,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H66" t="str">
+        <f>VLOOKUP(F66,학과정보!$A$2:$B$6,2)</f>
         <v>D001</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>144</v>
       </c>
@@ -3377,17 +3461,17 @@
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F67" t="s">
         <v>48</v>
       </c>
-      <c r="G67" t="str">
-        <f>VLOOKUP(F67,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H67" t="str">
+        <f>VLOOKUP(F67,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>140</v>
       </c>
@@ -3402,17 +3486,17 @@
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
       </c>
-      <c r="G68" t="str">
-        <f>VLOOKUP(F68,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H68" t="str">
+        <f>VLOOKUP(F68,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>136</v>
       </c>
@@ -3427,17 +3511,17 @@
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F69" t="s">
         <v>0</v>
       </c>
-      <c r="G69" t="str">
-        <f>VLOOKUP(F69,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H69" t="str">
+        <f>VLOOKUP(F69,학과정보!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>132</v>
       </c>
@@ -3452,17 +3536,17 @@
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F70" t="s">
         <v>10</v>
       </c>
-      <c r="G70" t="str">
-        <f>VLOOKUP(F70,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H70" t="str">
+        <f>VLOOKUP(F70,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>128</v>
       </c>
@@ -3477,17 +3561,17 @@
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F71" t="s">
         <v>48</v>
       </c>
-      <c r="G71" t="str">
-        <f>VLOOKUP(F71,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H71" t="str">
+        <f>VLOOKUP(F71,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>124</v>
       </c>
@@ -3502,17 +3586,17 @@
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F72" t="s">
         <v>39</v>
       </c>
-      <c r="G72" t="str">
-        <f>VLOOKUP(F72,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H72" t="str">
+        <f>VLOOKUP(F72,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>120</v>
       </c>
@@ -3527,17 +3611,17 @@
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F73" t="s">
         <v>48</v>
       </c>
-      <c r="G73" t="str">
-        <f>VLOOKUP(F73,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H73" t="str">
+        <f>VLOOKUP(F73,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>116</v>
       </c>
@@ -3552,17 +3636,17 @@
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F74" t="s">
         <v>0</v>
       </c>
-      <c r="G74" t="str">
-        <f>VLOOKUP(F74,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H74" t="str">
+        <f>VLOOKUP(F74,학과정보!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>112</v>
       </c>
@@ -3577,17 +3661,17 @@
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F75" t="s">
         <v>5</v>
       </c>
-      <c r="G75" t="str">
-        <f>VLOOKUP(F75,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H75" t="str">
+        <f>VLOOKUP(F75,학과정보!$A$2:$B$6,2)</f>
         <v>D001</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>108</v>
       </c>
@@ -3602,17 +3686,17 @@
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F76" t="s">
         <v>39</v>
       </c>
-      <c r="G76" t="str">
-        <f>VLOOKUP(F76,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H76" t="str">
+        <f>VLOOKUP(F76,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>104</v>
       </c>
@@ -3627,17 +3711,17 @@
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F77" t="s">
         <v>39</v>
       </c>
-      <c r="G77" t="str">
-        <f>VLOOKUP(F77,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H77" t="str">
+        <f>VLOOKUP(F77,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>100</v>
       </c>
@@ -3652,17 +3736,17 @@
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F78" t="s">
         <v>39</v>
       </c>
-      <c r="G78" t="str">
-        <f>VLOOKUP(F78,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H78" t="str">
+        <f>VLOOKUP(F78,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>96</v>
       </c>
@@ -3677,17 +3761,17 @@
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F79" t="s">
         <v>48</v>
       </c>
-      <c r="G79" t="str">
-        <f>VLOOKUP(F79,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H79" t="str">
+        <f>VLOOKUP(F79,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>92</v>
       </c>
@@ -3707,12 +3791,12 @@
       <c r="F80" t="s">
         <v>48</v>
       </c>
-      <c r="G80" t="str">
-        <f>VLOOKUP(F80,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H80" t="str">
+        <f>VLOOKUP(F80,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>88</v>
       </c>
@@ -3732,12 +3816,12 @@
       <c r="F81" t="s">
         <v>39</v>
       </c>
-      <c r="G81" t="str">
-        <f>VLOOKUP(F81,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H81" t="str">
+        <f>VLOOKUP(F81,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>84</v>
       </c>
@@ -3752,17 +3836,17 @@
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F82" t="s">
         <v>39</v>
       </c>
-      <c r="G82" t="str">
-        <f>VLOOKUP(F82,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H82" t="str">
+        <f>VLOOKUP(F82,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>80</v>
       </c>
@@ -3777,17 +3861,17 @@
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F83" t="s">
         <v>39</v>
       </c>
-      <c r="G83" t="str">
-        <f>VLOOKUP(F83,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H83" t="str">
+        <f>VLOOKUP(F83,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>76</v>
       </c>
@@ -3802,17 +3886,17 @@
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F84" t="s">
         <v>0</v>
       </c>
-      <c r="G84" t="str">
-        <f>VLOOKUP(F84,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H84" t="str">
+        <f>VLOOKUP(F84,학과정보!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>72</v>
       </c>
@@ -3827,17 +3911,17 @@
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F85" t="s">
         <v>48</v>
       </c>
-      <c r="G85" t="str">
-        <f>VLOOKUP(F85,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H85" t="str">
+        <f>VLOOKUP(F85,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>68</v>
       </c>
@@ -3852,17 +3936,17 @@
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F86" t="s">
         <v>39</v>
       </c>
-      <c r="G86" t="str">
-        <f>VLOOKUP(F86,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H86" t="str">
+        <f>VLOOKUP(F86,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>64</v>
       </c>
@@ -3882,12 +3966,12 @@
       <c r="F87" t="s">
         <v>0</v>
       </c>
-      <c r="G87" t="str">
-        <f>VLOOKUP(F87,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H87" t="str">
+        <f>VLOOKUP(F87,학과정보!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>60</v>
       </c>
@@ -3902,17 +3986,17 @@
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F88" t="s">
         <v>0</v>
       </c>
-      <c r="G88" t="str">
-        <f>VLOOKUP(F88,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H88" t="str">
+        <f>VLOOKUP(F88,학과정보!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>56</v>
       </c>
@@ -3927,17 +4011,17 @@
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F89" t="s">
         <v>48</v>
       </c>
-      <c r="G89" t="str">
-        <f>VLOOKUP(F89,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H89" t="str">
+        <f>VLOOKUP(F89,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>52</v>
       </c>
@@ -3952,17 +4036,17 @@
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F90" t="s">
         <v>48</v>
       </c>
-      <c r="G90" t="str">
-        <f>VLOOKUP(F90,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H90" t="str">
+        <f>VLOOKUP(F90,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>47</v>
       </c>
@@ -3982,12 +4066,12 @@
       <c r="F91" t="s">
         <v>10</v>
       </c>
-      <c r="G91" t="str">
-        <f>VLOOKUP(F91,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H91" t="str">
+        <f>VLOOKUP(F91,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>43</v>
       </c>
@@ -4002,17 +4086,17 @@
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F92" t="s">
         <v>39</v>
       </c>
-      <c r="G92" t="str">
-        <f>VLOOKUP(F92,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H92" t="str">
+        <f>VLOOKUP(F92,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>38</v>
       </c>
@@ -4027,17 +4111,17 @@
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F93" t="s">
         <v>10</v>
       </c>
-      <c r="G93" t="str">
-        <f>VLOOKUP(F93,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H93" t="str">
+        <f>VLOOKUP(F93,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>34</v>
       </c>
@@ -4052,17 +4136,17 @@
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F94" t="s">
         <v>10</v>
       </c>
-      <c r="G94" t="str">
-        <f>VLOOKUP(F94,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H94" t="str">
+        <f>VLOOKUP(F94,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>30</v>
       </c>
@@ -4082,12 +4166,12 @@
       <c r="F95" t="s">
         <v>10</v>
       </c>
-      <c r="G95" t="str">
-        <f>VLOOKUP(F95,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H95" t="str">
+        <f>VLOOKUP(F95,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>26</v>
       </c>
@@ -4102,17 +4186,17 @@
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F96" t="s">
         <v>0</v>
       </c>
-      <c r="G96" t="str">
-        <f>VLOOKUP(F96,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H96" t="str">
+        <f>VLOOKUP(F96,학과정보!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>22</v>
       </c>
@@ -4127,17 +4211,17 @@
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F97" t="s">
         <v>0</v>
       </c>
-      <c r="G97" t="str">
-        <f>VLOOKUP(F97,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H97" t="str">
+        <f>VLOOKUP(F97,학과정보!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>18</v>
       </c>
@@ -4152,17 +4236,17 @@
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F98" t="s">
         <v>10</v>
       </c>
-      <c r="G98" t="str">
-        <f>VLOOKUP(F98,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H98" t="str">
+        <f>VLOOKUP(F98,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>14</v>
       </c>
@@ -4177,17 +4261,17 @@
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F99" t="s">
         <v>10</v>
       </c>
-      <c r="G99" t="str">
-        <f>VLOOKUP(F99,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H99" t="str">
+        <f>VLOOKUP(F99,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>9</v>
       </c>
@@ -4207,12 +4291,12 @@
       <c r="F100" t="s">
         <v>5</v>
       </c>
-      <c r="G100" t="str">
-        <f>VLOOKUP(F100,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H100" t="str">
+        <f>VLOOKUP(F100,학과정보!$A$2:$B$6,2)</f>
         <v>D001</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>4</v>
       </c>
@@ -4227,13 +4311,13 @@
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F101" t="s">
         <v>0</v>
       </c>
-      <c r="G101" t="str">
-        <f>VLOOKUP(F101,Sheet1!$A$1:$B$5,2)</f>
+      <c r="H101" t="str">
+        <f>VLOOKUP(F101,학과정보!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
@@ -4249,7 +4333,7 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4291,14 +4375,14 @@
       </c>
       <c r="C2" t="str">
         <f ca="1">"010"&amp;TEXT(RANDBETWEEN(1000000,99999999),"-0000-0000")</f>
-        <v>010-3185-4196</v>
+        <v>010-3423-5724</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>401</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E65" ca="1" si="0">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
@@ -4313,14 +4397,14 @@
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C66" ca="1" si="1">"010"&amp;TEXT(RANDBETWEEN(1000000,99999999),"-0000-0000")</f>
-        <v>010-3505-3324</v>
+        <v>010-4556-3678</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>397</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -4335,7 +4419,7 @@
       </c>
       <c r="C4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3613-6096</v>
+        <v>010-6076-2546</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>393</v>
@@ -4357,14 +4441,14 @@
       </c>
       <c r="C5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6197-2781</v>
+        <v>010-3886-4526</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>389</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -4379,14 +4463,14 @@
       </c>
       <c r="C6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3912-0905</v>
+        <v>010-7846-1149</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>385</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F6" t="s">
         <v>48</v>
@@ -4401,14 +4485,14 @@
       </c>
       <c r="C7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3337-0599</v>
+        <v>010-6340-6892</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>381</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
@@ -4423,7 +4507,7 @@
       </c>
       <c r="C8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7446-9180</v>
+        <v>010-1084-7503</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>377</v>
@@ -4445,7 +4529,7 @@
       </c>
       <c r="C9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9694-4344</v>
+        <v>010-2365-5999</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>373</v>
@@ -4467,14 +4551,14 @@
       </c>
       <c r="C10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4400-0847</v>
+        <v>010-6952-6041</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>369</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -4489,14 +4573,14 @@
       </c>
       <c r="C11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4333-3176</v>
+        <v>010-7076-4228</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>365</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
@@ -4511,14 +4595,14 @@
       </c>
       <c r="C12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3208-9003</v>
+        <v>010-8998-2324</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>361</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
@@ -4533,14 +4617,14 @@
       </c>
       <c r="C13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9335-7345</v>
+        <v>010-8966-9722</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>357</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F13" t="s">
         <v>48</v>
@@ -4555,14 +4639,14 @@
       </c>
       <c r="C14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4568-2968</v>
+        <v>010-4369-6471</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>353</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F14" t="s">
         <v>39</v>
@@ -4577,14 +4661,14 @@
       </c>
       <c r="C15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8761-6946</v>
+        <v>010-2090-7190</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>349</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
@@ -4599,7 +4683,7 @@
       </c>
       <c r="C16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3494-4540</v>
+        <v>010-1759-8540</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>345</v>
@@ -4621,14 +4705,14 @@
       </c>
       <c r="C17" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3689-6403</v>
+        <v>010-1865-8146</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>341</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F17" t="s">
         <v>39</v>
@@ -4643,7 +4727,7 @@
       </c>
       <c r="C18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0575-3296</v>
+        <v>010-1066-5821</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>337</v>
@@ -4665,14 +4749,14 @@
       </c>
       <c r="C19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4162-2426</v>
+        <v>010-1175-9832</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>333</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
@@ -4687,14 +4771,14 @@
       </c>
       <c r="C20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2437-9720</v>
+        <v>010-2185-2566</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>329</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
@@ -4709,14 +4793,14 @@
       </c>
       <c r="C21" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3996-1277</v>
+        <v>010-7562-0452</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>325</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
@@ -4731,14 +4815,14 @@
       </c>
       <c r="C22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4633-7777</v>
+        <v>010-4212-7104</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>321</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22" t="s">
         <v>48</v>
@@ -4753,14 +4837,14 @@
       </c>
       <c r="C23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8287-6195</v>
+        <v>010-9589-6115</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>317</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23" t="s">
         <v>5</v>
@@ -4775,14 +4859,14 @@
       </c>
       <c r="C24" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4050-8859</v>
+        <v>010-1971-3396</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>313</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24" t="s">
         <v>48</v>
@@ -4797,14 +4881,14 @@
       </c>
       <c r="C25" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6264-2124</v>
+        <v>010-2493-1458</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>309</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25" t="s">
         <v>48</v>
@@ -4819,14 +4903,14 @@
       </c>
       <c r="C26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6779-4373</v>
+        <v>010-0486-0691</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>305</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26" t="s">
         <v>39</v>
@@ -4841,14 +4925,14 @@
       </c>
       <c r="C27" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3165-8180</v>
+        <v>010-2141-8968</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>301</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" t="s">
         <v>39</v>
@@ -4863,14 +4947,14 @@
       </c>
       <c r="C28" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4904-1710</v>
+        <v>010-5104-4186</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>297</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F28" t="s">
         <v>0</v>
@@ -4885,14 +4969,14 @@
       </c>
       <c r="C29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3304-4169</v>
+        <v>010-7970-4634</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>293</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F29" t="s">
         <v>5</v>
@@ -4907,14 +4991,14 @@
       </c>
       <c r="C30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3398-7389</v>
+        <v>010-5536-7532</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>289</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30" t="s">
         <v>5</v>
@@ -4929,7 +5013,7 @@
       </c>
       <c r="C31" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7268-4587</v>
+        <v>010-2653-5987</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>285</v>
@@ -4951,14 +5035,14 @@
       </c>
       <c r="C32" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0525-1074</v>
+        <v>010-8851-6909</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>281</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F32" t="s">
         <v>0</v>
@@ -4973,14 +5057,14 @@
       </c>
       <c r="C33" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6191-8025</v>
+        <v>010-5782-8691</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>277</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33" t="s">
         <v>10</v>
@@ -4995,14 +5079,14 @@
       </c>
       <c r="C34" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9843-7641</v>
+        <v>010-2171-6671</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>273</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F34" t="s">
         <v>0</v>
@@ -5017,7 +5101,7 @@
       </c>
       <c r="C35" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5252-4118</v>
+        <v>010-1918-8226</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>269</v>
@@ -5039,14 +5123,14 @@
       </c>
       <c r="C36" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4530-1455</v>
+        <v>010-4787-4079</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>265</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
@@ -5061,14 +5145,14 @@
       </c>
       <c r="C37" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6679-8182</v>
+        <v>010-4233-8524</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>261</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F37" t="s">
         <v>0</v>
@@ -5083,14 +5167,14 @@
       </c>
       <c r="C38" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9240-8407</v>
+        <v>010-3899-1279</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>257</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F38" t="s">
         <v>5</v>
@@ -5105,7 +5189,7 @@
       </c>
       <c r="C39" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2928-9632</v>
+        <v>010-5517-4483</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>253</v>
@@ -5127,14 +5211,14 @@
       </c>
       <c r="C40" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9345-3471</v>
+        <v>010-3615-3161</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>249</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F40" t="s">
         <v>48</v>
@@ -5149,14 +5233,14 @@
       </c>
       <c r="C41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9222-6450</v>
+        <v>010-4983-2657</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>245</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F41" t="s">
         <v>39</v>
@@ -5171,14 +5255,14 @@
       </c>
       <c r="C42" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8476-4637</v>
+        <v>010-8364-2488</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>241</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
@@ -5193,14 +5277,14 @@
       </c>
       <c r="C43" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5177-5379</v>
+        <v>010-9218-5122</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>237</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F43" t="s">
         <v>0</v>
@@ -5215,14 +5299,14 @@
       </c>
       <c r="C44" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2257-2563</v>
+        <v>010-5235-8368</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>233</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F44" t="s">
         <v>0</v>
@@ -5237,14 +5321,14 @@
       </c>
       <c r="C45" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5323-8200</v>
+        <v>010-2204-6558</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>229</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
@@ -5259,14 +5343,14 @@
       </c>
       <c r="C46" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9316-3832</v>
+        <v>010-3076-0299</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F46" t="s">
         <v>39</v>
@@ -5281,14 +5365,14 @@
       </c>
       <c r="C47" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1638-6643</v>
+        <v>010-1980-1265</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>221</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F47" t="s">
         <v>5</v>
@@ -5303,14 +5387,14 @@
       </c>
       <c r="C48" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9657-2835</v>
+        <v>010-8970-0583</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>217</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F48" t="s">
         <v>39</v>
@@ -5325,14 +5409,14 @@
       </c>
       <c r="C49" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7150-3240</v>
+        <v>010-3366-0228</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>213</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F49" t="s">
         <v>5</v>
@@ -5347,14 +5431,14 @@
       </c>
       <c r="C50" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1127-3924</v>
+        <v>010-0847-2982</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>209</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F50" t="s">
         <v>0</v>
@@ -5369,14 +5453,14 @@
       </c>
       <c r="C51" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7739-2541</v>
+        <v>010-7156-9866</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>205</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F51" t="s">
         <v>10</v>
@@ -5391,7 +5475,7 @@
       </c>
       <c r="C52" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5043-0739</v>
+        <v>010-2198-4343</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>201</v>
@@ -5413,14 +5497,14 @@
       </c>
       <c r="C53" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3061-7135</v>
+        <v>010-4861-6420</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>197</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F53" t="s">
         <v>10</v>
@@ -5435,14 +5519,14 @@
       </c>
       <c r="C54" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0894-4877</v>
+        <v>010-5631-9541</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>193</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F54" t="s">
         <v>39</v>
@@ -5457,14 +5541,14 @@
       </c>
       <c r="C55" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4543-9352</v>
+        <v>010-9162-4025</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>189</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F55" t="s">
         <v>10</v>
@@ -5479,7 +5563,7 @@
       </c>
       <c r="C56" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9692-8824</v>
+        <v>010-6887-6247</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>185</v>
@@ -5501,7 +5585,7 @@
       </c>
       <c r="C57" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9461-0736</v>
+        <v>010-1198-5542</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>181</v>
@@ -5523,14 +5607,14 @@
       </c>
       <c r="C58" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2928-8883</v>
+        <v>010-4440-7078</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>177</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F58" t="s">
         <v>48</v>
@@ -5545,14 +5629,14 @@
       </c>
       <c r="C59" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5458-8559</v>
+        <v>010-1366-9453</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>173</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F59" t="s">
         <v>39</v>
@@ -5567,14 +5651,14 @@
       </c>
       <c r="C60" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7921-7143</v>
+        <v>010-8000-9183</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>169</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F60" t="s">
         <v>5</v>
@@ -5589,7 +5673,7 @@
       </c>
       <c r="C61" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9894-2941</v>
+        <v>010-4810-9701</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>165</v>
@@ -5611,14 +5695,14 @@
       </c>
       <c r="C62" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8655-0475</v>
+        <v>010-2804-1915</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>161</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F62" t="s">
         <v>39</v>
@@ -5633,14 +5717,14 @@
       </c>
       <c r="C63" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5722-2188</v>
+        <v>010-0750-5526</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>157</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F63" t="s">
         <v>5</v>
@@ -5655,14 +5739,14 @@
       </c>
       <c r="C64" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7210-5502</v>
+        <v>010-3789-0820</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>153</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F64" t="s">
         <v>0</v>
@@ -5677,7 +5761,7 @@
       </c>
       <c r="C65" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9523-5526</v>
+        <v>010-6259-3740</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>149</v>
@@ -5699,14 +5783,14 @@
       </c>
       <c r="C66" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0627-4441</v>
+        <v>010-1750-6762</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>145</v>
       </c>
       <c r="E66">
         <f t="shared" ref="E66:E101" ca="1" si="2">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F66" t="s">
         <v>5</v>
@@ -5721,14 +5805,14 @@
       </c>
       <c r="C67" t="str">
         <f t="shared" ref="C67:C101" ca="1" si="3">"010"&amp;TEXT(RANDBETWEEN(1000000,99999999),"-0000-0000")</f>
-        <v>010-4539-1463</v>
+        <v>010-6156-1087</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>141</v>
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F67" t="s">
         <v>48</v>
@@ -5743,14 +5827,14 @@
       </c>
       <c r="C68" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-5563-4019</v>
+        <v>010-3918-3358</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>137</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
@@ -5765,14 +5849,14 @@
       </c>
       <c r="C69" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-8177-4833</v>
+        <v>010-7757-3234</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>133</v>
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F69" t="s">
         <v>0</v>
@@ -5787,14 +5871,14 @@
       </c>
       <c r="C70" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-6711-8026</v>
+        <v>010-5161-1498</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>129</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F70" t="s">
         <v>10</v>
@@ -5809,7 +5893,7 @@
       </c>
       <c r="C71" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-4099-7097</v>
+        <v>010-5200-3056</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>125</v>
@@ -5831,7 +5915,7 @@
       </c>
       <c r="C72" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-1283-2680</v>
+        <v>010-3701-3823</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>121</v>
@@ -5853,7 +5937,7 @@
       </c>
       <c r="C73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-4979-1608</v>
+        <v>010-4824-0470</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>117</v>
@@ -5875,14 +5959,14 @@
       </c>
       <c r="C74" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3167-2111</v>
+        <v>010-2485-3760</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>113</v>
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F74" t="s">
         <v>0</v>
@@ -5897,14 +5981,14 @@
       </c>
       <c r="C75" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-1148-4760</v>
+        <v>010-9214-2078</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F75" t="s">
         <v>5</v>
@@ -5919,14 +6003,14 @@
       </c>
       <c r="C76" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-7842-3226</v>
+        <v>010-7318-8560</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>105</v>
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F76" t="s">
         <v>39</v>
@@ -5941,14 +6025,14 @@
       </c>
       <c r="C77" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-8851-5545</v>
+        <v>010-5565-8374</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>101</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F77" t="s">
         <v>39</v>
@@ -5963,7 +6047,7 @@
       </c>
       <c r="C78" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-6849-2301</v>
+        <v>010-8495-8702</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>97</v>
@@ -5985,7 +6069,7 @@
       </c>
       <c r="C79" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-0787-9257</v>
+        <v>010-1396-6429</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>93</v>
@@ -6007,7 +6091,7 @@
       </c>
       <c r="C80" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-4985-4221</v>
+        <v>010-4554-9456</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>89</v>
@@ -6029,14 +6113,14 @@
       </c>
       <c r="C81" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3743-4440</v>
+        <v>010-7457-1962</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>85</v>
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F81" t="s">
         <v>39</v>
@@ -6051,14 +6135,14 @@
       </c>
       <c r="C82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-7956-3885</v>
+        <v>010-4822-4532</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F82" t="s">
         <v>39</v>
@@ -6073,7 +6157,7 @@
       </c>
       <c r="C83" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-0775-5711</v>
+        <v>010-8653-2229</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>77</v>
@@ -6095,14 +6179,14 @@
       </c>
       <c r="C84" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-8283-7796</v>
+        <v>010-4183-9110</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>73</v>
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F84" t="s">
         <v>0</v>
@@ -6117,14 +6201,14 @@
       </c>
       <c r="C85" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-0205-3305</v>
+        <v>010-8034-0263</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F85" t="s">
         <v>48</v>
@@ -6139,7 +6223,7 @@
       </c>
       <c r="C86" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-2504-5817</v>
+        <v>010-7403-9300</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>65</v>
@@ -6161,7 +6245,7 @@
       </c>
       <c r="C87" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-6055-6907</v>
+        <v>010-4178-4738</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>61</v>
@@ -6183,14 +6267,14 @@
       </c>
       <c r="C88" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3132-9855</v>
+        <v>010-6550-2000</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>57</v>
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F88" t="s">
         <v>0</v>
@@ -6205,14 +6289,14 @@
       </c>
       <c r="C89" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3196-7390</v>
+        <v>010-6613-4570</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F89" t="s">
         <v>48</v>
@@ -6227,14 +6311,14 @@
       </c>
       <c r="C90" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-1705-7454</v>
+        <v>010-7489-4095</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F90" t="s">
         <v>48</v>
@@ -6249,14 +6333,14 @@
       </c>
       <c r="C91" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-2144-7995</v>
+        <v>010-9815-6092</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F91" t="s">
         <v>10</v>
@@ -6271,14 +6355,14 @@
       </c>
       <c r="C92" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3369-5359</v>
+        <v>010-9583-2367</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F92" t="s">
         <v>39</v>
@@ -6293,14 +6377,14 @@
       </c>
       <c r="C93" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-5077-2966</v>
+        <v>010-3303-1128</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F93" t="s">
         <v>10</v>
@@ -6315,14 +6399,14 @@
       </c>
       <c r="C94" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3124-7619</v>
+        <v>010-1894-3006</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F94" t="s">
         <v>10</v>
@@ -6337,7 +6421,7 @@
       </c>
       <c r="C95" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-2554-3152</v>
+        <v>010-2675-9955</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>27</v>
@@ -6359,14 +6443,14 @@
       </c>
       <c r="C96" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-9461-8084</v>
+        <v>010-8689-9378</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F96" t="s">
         <v>0</v>
@@ -6381,7 +6465,7 @@
       </c>
       <c r="C97" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-5054-1547</v>
+        <v>010-8335-0017</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>19</v>
@@ -6403,7 +6487,7 @@
       </c>
       <c r="C98" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-4036-2909</v>
+        <v>010-5453-3729</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>15</v>
@@ -6425,14 +6509,14 @@
       </c>
       <c r="C99" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3029-7354</v>
+        <v>010-5160-3703</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F99" t="s">
         <v>10</v>
@@ -6447,14 +6531,14 @@
       </c>
       <c r="C100" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-0394-9768</v>
+        <v>010-2935-9697</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F100" t="s">
         <v>5</v>
@@ -6469,7 +6553,7 @@
       </c>
       <c r="C101" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3252-0865</v>
+        <v>010-3749-2921</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>1</v>
@@ -6525,23 +6609,23 @@
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(50,100)</f>
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:F21" ca="1" si="0">RANDBETWEEN(50,100)</f>
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -6549,24 +6633,24 @@
         <v>400</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:F18" ca="1" si="1">RANDBETWEEN(50,100)</f>
-        <v>53</v>
+        <f t="shared" ref="B3:B18" ca="1" si="1">RANDBETWEEN(50,100)</f>
+        <v>67</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -6575,23 +6659,23 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -6600,23 +6684,23 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -6625,23 +6709,23 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -6650,23 +6734,23 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ca="1" si="0"/>
         <v>97</v>
       </c>
-      <c r="D7">
-        <f t="shared" ca="1" si="0"/>
-        <v>55</v>
-      </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -6675,23 +6759,23 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -6700,23 +6784,23 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ca="1" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ca="1" si="0"/>
         <v>91</v>
       </c>
-      <c r="C9">
-        <f t="shared" ca="1" si="0"/>
-        <v>92</v>
-      </c>
-      <c r="D9">
-        <f t="shared" ca="1" si="0"/>
-        <v>68</v>
-      </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -6725,23 +6809,23 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -6750,23 +6834,23 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -6775,23 +6859,23 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -6800,23 +6884,23 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ca="1" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ca="1" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ca="1" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ca="1" si="0"/>
         <v>51</v>
-      </c>
-      <c r="C13">
-        <f t="shared" ca="1" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="D13">
-        <f t="shared" ca="1" si="0"/>
-        <v>88</v>
-      </c>
-      <c r="E13">
-        <f t="shared" ca="1" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="F13">
-        <f t="shared" ca="1" si="0"/>
-        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -6825,23 +6909,23 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -6850,23 +6934,23 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -6875,23 +6959,23 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ca="1" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ca="1" si="0"/>
         <v>56</v>
       </c>
-      <c r="D16">
-        <f t="shared" ca="1" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="E16">
-        <f t="shared" ca="1" si="0"/>
-        <v>62</v>
-      </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -6900,23 +6984,23 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -6925,23 +7009,23 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ca="1" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ca="1" si="0"/>
+        <v>97</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ca="1" si="0"/>
         <v>89</v>
       </c>
-      <c r="C18">
-        <f t="shared" ca="1" si="0"/>
-        <v>94</v>
-      </c>
-      <c r="D18">
-        <f t="shared" ca="1" si="0"/>
-        <v>87</v>
-      </c>
-      <c r="E18">
-        <f t="shared" ca="1" si="0"/>
-        <v>78</v>
-      </c>
       <c r="F18">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -6950,23 +7034,23 @@
       </c>
       <c r="B19">
         <f t="shared" ref="B19:F34" ca="1" si="2">RANDBETWEEN(50,100)</f>
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -6975,23 +7059,23 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -7000,23 +7084,23 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="2"/>
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -7025,23 +7109,23 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="2"/>
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="2"/>
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="2"/>
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="H22" t="s">
         <v>418</v>
@@ -7053,11 +7137,11 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="2"/>
@@ -7065,11 +7149,11 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="2"/>
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -7078,23 +7162,23 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="2"/>
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="2"/>
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="2"/>
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -7103,23 +7187,23 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="2"/>
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ca="1" si="2"/>
         <v>59</v>
       </c>
-      <c r="E25">
-        <f t="shared" ca="1" si="2"/>
-        <v>92</v>
-      </c>
       <c r="F25">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -7128,11 +7212,11 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="2"/>
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="2"/>
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="2"/>
@@ -7140,11 +7224,11 @@
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="2"/>
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -7153,15 +7237,15 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="2"/>
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="2"/>
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="2"/>
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="2"/>
@@ -7169,7 +7253,7 @@
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="2"/>
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -7178,23 +7262,23 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="2"/>
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="2"/>
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="2"/>
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="2"/>
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="2"/>
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -7203,23 +7287,23 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="2"/>
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -7228,23 +7312,23 @@
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ca="1" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ca="1" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ca="1" si="2"/>
         <v>66</v>
       </c>
-      <c r="C30">
-        <f t="shared" ca="1" si="2"/>
-        <v>73</v>
-      </c>
-      <c r="D30">
-        <f t="shared" ca="1" si="2"/>
-        <v>98</v>
-      </c>
-      <c r="E30">
-        <f t="shared" ca="1" si="2"/>
-        <v>50</v>
-      </c>
       <c r="F30">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -7253,23 +7337,23 @@
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="2"/>
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="2"/>
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="2"/>
-        <v>95</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -7278,23 +7362,23 @@
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="2"/>
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="2"/>
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="2"/>
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="2"/>
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="2"/>
-        <v>91</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -7303,23 +7387,23 @@
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="2"/>
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="2"/>
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="2"/>
-        <v>85</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -7328,23 +7412,23 @@
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="2"/>
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="2"/>
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="2"/>
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -7353,23 +7437,23 @@
       </c>
       <c r="B35">
         <f t="shared" ref="B35:F50" ca="1" si="3">RANDBETWEEN(50,100)</f>
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="3"/>
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="3"/>
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="3"/>
-        <v>92</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -7378,23 +7462,23 @@
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="3"/>
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="3"/>
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="3"/>
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="3"/>
-        <v>53</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -7403,19 +7487,19 @@
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="3"/>
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="3"/>
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="3"/>
@@ -7428,23 +7512,23 @@
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="3"/>
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="3"/>
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="3"/>
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="3"/>
-        <v>81</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -7453,23 +7537,23 @@
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="3"/>
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="3"/>
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="3"/>
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="3"/>
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -7478,23 +7562,23 @@
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="3"/>
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="3"/>
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="3"/>
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="3"/>
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -7503,23 +7587,23 @@
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="3"/>
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="3"/>
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="3"/>
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -7528,23 +7612,23 @@
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="3"/>
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="3"/>
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="3"/>
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="3"/>
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="3"/>
-        <v>72</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -7553,23 +7637,23 @@
       </c>
       <c r="B43">
         <f t="shared" ca="1" si="3"/>
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="3"/>
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="3"/>
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -7578,23 +7662,23 @@
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="3"/>
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="3"/>
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="3"/>
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="3"/>
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="3"/>
-        <v>51</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -7603,23 +7687,23 @@
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="3"/>
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="3"/>
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="3"/>
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="3"/>
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="3"/>
-        <v>99</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -7628,23 +7712,23 @@
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="3"/>
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="3"/>
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="3"/>
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="3"/>
-        <v>100</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -7653,23 +7737,23 @@
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="3"/>
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="3"/>
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="3"/>
-        <v>79</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -7678,23 +7762,23 @@
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="3"/>
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="3"/>
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="3"/>
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -7703,23 +7787,23 @@
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="3"/>
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="3"/>
-        <v>56</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -7728,23 +7812,23 @@
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="3"/>
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="3"/>
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="3"/>
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -7753,23 +7837,23 @@
       </c>
       <c r="B51">
         <f t="shared" ref="B51:F66" ca="1" si="4">RANDBETWEEN(50,100)</f>
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="4"/>
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="4"/>
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="4"/>
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="4"/>
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -7778,23 +7862,23 @@
       </c>
       <c r="B52">
         <f t="shared" ca="1" si="4"/>
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="4"/>
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="4"/>
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="4"/>
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="4"/>
-        <v>100</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -7803,23 +7887,23 @@
       </c>
       <c r="B53">
         <f t="shared" ca="1" si="4"/>
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="4"/>
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="4"/>
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="4"/>
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="F53">
         <f t="shared" ca="1" si="4"/>
-        <v>84</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -7828,23 +7912,23 @@
       </c>
       <c r="B54">
         <f t="shared" ca="1" si="4"/>
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="4"/>
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="4"/>
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="4"/>
-        <v>62</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -7853,23 +7937,23 @@
       </c>
       <c r="B55">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="4"/>
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="4"/>
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="F55">
         <f t="shared" ca="1" si="4"/>
-        <v>99</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -7878,23 +7962,23 @@
       </c>
       <c r="B56">
         <f t="shared" ca="1" si="4"/>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="4"/>
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="4"/>
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="4"/>
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -7903,23 +7987,23 @@
       </c>
       <c r="B57">
         <f t="shared" ca="1" si="4"/>
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="4"/>
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="4"/>
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="4"/>
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -7928,23 +8012,23 @@
       </c>
       <c r="B58">
         <f t="shared" ca="1" si="4"/>
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="4"/>
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="4"/>
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="4"/>
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="4"/>
-        <v>89</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -7953,23 +8037,23 @@
       </c>
       <c r="B59">
         <f t="shared" ca="1" si="4"/>
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="4"/>
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="4"/>
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="4"/>
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="4"/>
-        <v>65</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -7978,19 +8062,19 @@
       </c>
       <c r="B60">
         <f t="shared" ca="1" si="4"/>
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="4"/>
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="4"/>
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="4"/>
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="4"/>
@@ -8003,7 +8087,7 @@
       </c>
       <c r="B61">
         <f t="shared" ca="1" si="4"/>
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="4"/>
@@ -8011,15 +8095,15 @@
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="4"/>
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="4"/>
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="4"/>
-        <v>75</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -8028,23 +8112,23 @@
       </c>
       <c r="B62">
         <f t="shared" ca="1" si="4"/>
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="4"/>
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="4"/>
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="4"/>
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="4"/>
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -8053,23 +8137,23 @@
       </c>
       <c r="B63">
         <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="4"/>
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="4"/>
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="4"/>
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="4"/>
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -8078,23 +8162,23 @@
       </c>
       <c r="B64">
         <f t="shared" ca="1" si="4"/>
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="4"/>
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="4"/>
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="4"/>
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="4"/>
-        <v>78</v>
+        <v>52</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -8103,23 +8187,23 @@
       </c>
       <c r="B65">
         <f t="shared" ca="1" si="4"/>
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="4"/>
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="4"/>
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="4"/>
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="F65">
         <f t="shared" ca="1" si="4"/>
-        <v>57</v>
+        <v>96</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -8128,23 +8212,23 @@
       </c>
       <c r="B66">
         <f t="shared" ca="1" si="4"/>
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="4"/>
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="4"/>
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="4"/>
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="F66">
         <f t="shared" ca="1" si="4"/>
-        <v>83</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -8153,23 +8237,23 @@
       </c>
       <c r="B67">
         <f t="shared" ref="B67:F82" ca="1" si="5">RANDBETWEEN(50,100)</f>
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="5"/>
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="D67">
         <f t="shared" ca="1" si="5"/>
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="5"/>
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="F67">
         <f t="shared" ca="1" si="5"/>
-        <v>60</v>
+        <v>76</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -8178,23 +8262,23 @@
       </c>
       <c r="B68">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="5"/>
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="5"/>
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="F68">
         <f t="shared" ca="1" si="5"/>
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -8203,23 +8287,23 @@
       </c>
       <c r="B69">
         <f t="shared" ca="1" si="5"/>
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="5"/>
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="5"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="5"/>
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="F69">
         <f t="shared" ca="1" si="5"/>
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -8228,23 +8312,23 @@
       </c>
       <c r="B70">
         <f t="shared" ca="1" si="5"/>
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="5"/>
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="5"/>
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="5"/>
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="F70">
         <f t="shared" ca="1" si="5"/>
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -8253,23 +8337,23 @@
       </c>
       <c r="B71">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="5"/>
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="5"/>
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="F71">
         <f t="shared" ca="1" si="5"/>
-        <v>83</v>
+        <v>64</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -8278,11 +8362,11 @@
       </c>
       <c r="B72">
         <f t="shared" ca="1" si="5"/>
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="5"/>
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="5"/>
@@ -8290,11 +8374,11 @@
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="5"/>
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="F72">
         <f t="shared" ca="1" si="5"/>
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -8303,23 +8387,23 @@
       </c>
       <c r="B73">
         <f t="shared" ca="1" si="5"/>
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="5"/>
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D73">
         <f t="shared" ca="1" si="5"/>
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="5"/>
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F73">
         <f t="shared" ca="1" si="5"/>
-        <v>96</v>
+        <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -8328,23 +8412,23 @@
       </c>
       <c r="B74">
         <f t="shared" ca="1" si="5"/>
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="5"/>
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D74">
         <f t="shared" ca="1" si="5"/>
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="5"/>
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F74">
         <f t="shared" ca="1" si="5"/>
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -8353,23 +8437,23 @@
       </c>
       <c r="B75">
         <f t="shared" ca="1" si="5"/>
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="5"/>
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="5"/>
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="5"/>
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="F75">
         <f t="shared" ca="1" si="5"/>
-        <v>72</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -8378,23 +8462,23 @@
       </c>
       <c r="B76">
         <f t="shared" ca="1" si="5"/>
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="5"/>
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="5"/>
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="F76">
         <f t="shared" ca="1" si="5"/>
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -8403,23 +8487,23 @@
       </c>
       <c r="B77">
         <f t="shared" ca="1" si="5"/>
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="5"/>
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="5"/>
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="5"/>
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="F77">
         <f t="shared" ca="1" si="5"/>
-        <v>72</v>
+        <v>100</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -8428,23 +8512,23 @@
       </c>
       <c r="B78">
         <f t="shared" ca="1" si="5"/>
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="5"/>
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="5"/>
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="5"/>
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="F78">
         <f t="shared" ca="1" si="5"/>
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -8453,11 +8537,11 @@
       </c>
       <c r="B79">
         <f t="shared" ca="1" si="5"/>
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="5"/>
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="5"/>
@@ -8465,11 +8549,11 @@
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="5"/>
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="F79">
         <f t="shared" ca="1" si="5"/>
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -8478,23 +8562,23 @@
       </c>
       <c r="B80">
         <f t="shared" ca="1" si="5"/>
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="5"/>
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="5"/>
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="5"/>
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F80">
         <f t="shared" ca="1" si="5"/>
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -8503,23 +8587,23 @@
       </c>
       <c r="B81">
         <f t="shared" ca="1" si="5"/>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="5"/>
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="D81">
         <f t="shared" ca="1" si="5"/>
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="5"/>
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="F81">
         <f t="shared" ca="1" si="5"/>
-        <v>54</v>
+        <v>90</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -8528,15 +8612,15 @@
       </c>
       <c r="B82">
         <f t="shared" ca="1" si="5"/>
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="5"/>
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="5"/>
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="5"/>
@@ -8544,7 +8628,7 @@
       </c>
       <c r="F82">
         <f t="shared" ca="1" si="5"/>
-        <v>60</v>
+        <v>94</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -8553,23 +8637,23 @@
       </c>
       <c r="B83">
         <f t="shared" ref="B83:F98" ca="1" si="6">RANDBETWEEN(50,100)</f>
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="6"/>
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="6"/>
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="6"/>
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="F83">
         <f t="shared" ca="1" si="6"/>
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -8578,23 +8662,23 @@
       </c>
       <c r="B84">
         <f t="shared" ca="1" si="6"/>
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="6"/>
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="6"/>
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="6"/>
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F84">
         <f t="shared" ca="1" si="6"/>
-        <v>60</v>
+        <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -8603,23 +8687,23 @@
       </c>
       <c r="B85">
         <f t="shared" ca="1" si="6"/>
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="6"/>
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="6"/>
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="6"/>
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F85">
         <f t="shared" ca="1" si="6"/>
-        <v>84</v>
+        <v>55</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -8628,11 +8712,11 @@
       </c>
       <c r="B86">
         <f t="shared" ca="1" si="6"/>
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="6"/>
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="6"/>
@@ -8640,11 +8724,11 @@
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="6"/>
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="F86">
         <f t="shared" ca="1" si="6"/>
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -8653,23 +8737,23 @@
       </c>
       <c r="B87">
         <f t="shared" ca="1" si="6"/>
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="6"/>
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="6"/>
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="6"/>
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="F87">
         <f t="shared" ca="1" si="6"/>
-        <v>68</v>
+        <v>99</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -8678,23 +8762,23 @@
       </c>
       <c r="B88">
         <f t="shared" ca="1" si="6"/>
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="6"/>
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D88">
         <f t="shared" ca="1" si="6"/>
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="6"/>
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="F88">
         <f t="shared" ca="1" si="6"/>
-        <v>69</v>
+        <v>89</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -8703,23 +8787,23 @@
       </c>
       <c r="B89">
         <f t="shared" ca="1" si="6"/>
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="6"/>
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="6"/>
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="6"/>
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="F89">
         <f t="shared" ca="1" si="6"/>
-        <v>99</v>
+        <v>51</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -8728,23 +8812,23 @@
       </c>
       <c r="B90">
         <f t="shared" ca="1" si="6"/>
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="6"/>
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="6"/>
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="6"/>
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="F90">
         <f t="shared" ca="1" si="6"/>
-        <v>52</v>
+        <v>79</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -8753,23 +8837,23 @@
       </c>
       <c r="B91">
         <f t="shared" ca="1" si="6"/>
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="6"/>
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="6"/>
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="6"/>
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="F91">
         <f t="shared" ca="1" si="6"/>
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -8778,23 +8862,23 @@
       </c>
       <c r="B92">
         <f t="shared" ca="1" si="6"/>
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="6"/>
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="6"/>
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="6"/>
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="F92">
         <f t="shared" ca="1" si="6"/>
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -8803,23 +8887,23 @@
       </c>
       <c r="B93">
         <f t="shared" ca="1" si="6"/>
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="6"/>
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="6"/>
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="6"/>
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="F93">
         <f t="shared" ca="1" si="6"/>
-        <v>56</v>
+        <v>79</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -8828,23 +8912,23 @@
       </c>
       <c r="B94">
         <f t="shared" ca="1" si="6"/>
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="6"/>
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D94">
         <f t="shared" ca="1" si="6"/>
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="6"/>
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="F94">
         <f t="shared" ca="1" si="6"/>
-        <v>98</v>
+        <v>63</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -8853,23 +8937,23 @@
       </c>
       <c r="B95">
         <f t="shared" ca="1" si="6"/>
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="6"/>
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="D95">
         <f t="shared" ca="1" si="6"/>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="6"/>
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="F95">
         <f t="shared" ca="1" si="6"/>
-        <v>78</v>
+        <v>51</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -8878,23 +8962,23 @@
       </c>
       <c r="B96">
         <f t="shared" ca="1" si="6"/>
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="6"/>
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D96">
         <f t="shared" ca="1" si="6"/>
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="6"/>
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="F96">
         <f t="shared" ca="1" si="6"/>
-        <v>54</v>
+        <v>82</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -8903,23 +8987,23 @@
       </c>
       <c r="B97">
         <f t="shared" ca="1" si="6"/>
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="6"/>
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D97">
         <f t="shared" ca="1" si="6"/>
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="6"/>
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="F97">
         <f t="shared" ca="1" si="6"/>
-        <v>60</v>
+        <v>78</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -8928,23 +9012,23 @@
       </c>
       <c r="B98">
         <f t="shared" ca="1" si="6"/>
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="6"/>
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="6"/>
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="6"/>
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F98">
         <f t="shared" ca="1" si="6"/>
-        <v>76</v>
+        <v>92</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -8953,23 +9037,23 @@
       </c>
       <c r="B99">
         <f t="shared" ref="B99:F101" ca="1" si="7">RANDBETWEEN(50,100)</f>
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="7"/>
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="7"/>
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="7"/>
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F99">
         <f t="shared" ca="1" si="7"/>
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -8978,23 +9062,23 @@
       </c>
       <c r="B100">
         <f t="shared" ca="1" si="7"/>
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="7"/>
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="7"/>
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="7"/>
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="F100">
         <f t="shared" ca="1" si="7"/>
-        <v>75</v>
+        <v>52</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -9003,23 +9087,23 @@
       </c>
       <c r="B101">
         <f t="shared" ca="1" si="7"/>
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="7"/>
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D101">
         <f t="shared" ca="1" si="7"/>
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="7"/>
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="F101">
         <f t="shared" ca="1" si="7"/>
-        <v>70</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -9030,56 +9114,144 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E1" t="s">
+        <v>427</v>
+      </c>
+      <c r="F1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
+        <v>431</v>
+      </c>
+      <c r="D2" t="s">
+        <v>436</v>
+      </c>
+      <c r="E2" t="str">
+        <f ca="1">"062"&amp;TEXT(RANDBETWEEN(3333333,9999999),"-000-0000")</f>
+        <v>062-353-5743</v>
+      </c>
+      <c r="F2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
+        <v>432</v>
+      </c>
+      <c r="D3" t="s">
+        <v>437</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E6" ca="1" si="0">"062"&amp;TEXT(RANDBETWEEN(3333333,9999999),"-000-0000")</f>
+        <v>062-817-6622</v>
+      </c>
+      <c r="F3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>39</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
+        <v>433</v>
+      </c>
+      <c r="D4" t="s">
+        <v>438</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>062-734-0655</v>
+      </c>
+      <c r="F4" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>48</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="C5" t="s">
+        <v>434</v>
+      </c>
+      <c r="D5" t="s">
+        <v>439</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>062-337-9434</v>
+      </c>
+      <c r="F5" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>424</v>
       </c>
+      <c r="C6" t="s">
+        <v>435</v>
+      </c>
+      <c r="D6" t="s">
+        <v>440</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>062-393-4041</v>
+      </c>
+      <c r="F6" t="s">
+        <v>445</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A1:A5">
+  <sortState ref="A2:A6">
     <sortCondition ref="A1:A5"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
